--- a/Load Times.xlsx
+++ b/Load Times.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="WebSocket" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Normal" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
   <si>
     <t>Overhead Test</t>
   </si>
@@ -123,9 +122,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>ef.min</t>
-  </si>
-  <si>
     <t>evaporate.min.js</t>
   </si>
   <si>
@@ -229,6 +225,9 @@
   </si>
   <si>
     <t>dropzone.min.js</t>
+  </si>
+  <si>
+    <t>ef.min.js</t>
   </si>
   <si>
     <t>dataTables.responsive.min.js</t>
@@ -336,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -352,6 +351,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -378,6 +379,1256 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Files vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WebSocket!$C$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WebSocket!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.23319148936170211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25934426229508201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18509561304836897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33364705882352946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31189090909090905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23059071729957806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2295839753466872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141601024"/>
+        <c:axId val="141599488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141601024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141599488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141599488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141601024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data vs.Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WebSocket!$C$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WebSocket!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.23319148936170211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25934426229508201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18509561304836897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33364705882352946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31189090909090905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23059071729957806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2295839753466872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="142468224"/>
+        <c:axId val="142469760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="142468224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142469760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="142469760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142468224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average File Size vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WebSocket!$C$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>31.058823529411764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WebSocket!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.23319148936170211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25934426229508201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18509561304836897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33364705882352946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31189090909090905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23059071729957806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2295839753466872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146646144"/>
+        <c:axId val="201317760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146646144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201317760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="201317760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146646144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Files vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Normal!$C$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16178736517719569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="142080256"/>
+        <c:axId val="144969728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="142080256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144969728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144969728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142080256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data vs.Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Normal!$C$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16178736517719569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146303232"/>
+        <c:axId val="146411520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146303232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146411520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146411520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146303232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average File Size vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Normal!$C$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>31.058823529411764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16178736517719569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146648448"/>
+        <c:axId val="146687104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146648448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146687104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146687104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146648448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857251</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857251</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
+    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +1949,7 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2">
         <f>AVERAGE(C21:L21)</f>
@@ -710,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="8">
         <f>AVERAGE(C22:L22)</f>
@@ -722,56 +1973,56 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="13" t="str">
         <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
         <v>JS Only Average Size = 1410</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="str">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="str">
         <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
         <v>JS Only Average Size = 183</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="str">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="str">
         <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
         <v>JS Only Average Size = 177.8</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="str">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="str">
         <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
         <v>JS Only Average Size = 34</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="str">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
         <v>JS Only Average Size = 34.375</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11" t="str">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
         <v>JS Only Average Size = 31.6</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11" t="str">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
         <v>JS Only Average Size = 31.1</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11" t="str">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
         <v>CSS Only Average Size = 24.5</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11" t="str">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
         <v>CSS Only Average Size = 17.5</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11" t="str">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
         <v>CSS Only Average Size = 16.6</v>
       </c>
-      <c r="V5" s="11"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -780,46 +2031,46 @@
       <c r="B6">
         <v>1.35</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>1008</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
         <v>240</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
         <v>341</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="19">
+      <c r="H6" s="13"/>
+      <c r="I6" s="21">
         <v>56.2</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="23">
+      <c r="J6" s="21"/>
+      <c r="K6" s="25">
         <v>88.9</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="14">
+      <c r="L6" s="25"/>
+      <c r="M6" s="16">
         <v>105</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
         <v>149</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16">
         <v>1.29</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="17">
+      <c r="R6" s="16"/>
+      <c r="S6" s="19">
         <v>1.46</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="14">
+      <c r="T6" s="19"/>
+      <c r="U6" s="16">
         <v>1.35</v>
       </c>
-      <c r="V6" s="14"/>
+      <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -828,46 +2079,46 @@
       <c r="B7">
         <v>1.42</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>1036</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
         <v>252</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
         <v>319</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="19">
+      <c r="H7" s="13"/>
+      <c r="I7" s="21">
         <v>59.1</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="23">
+      <c r="J7" s="21"/>
+      <c r="K7" s="25">
         <v>75.400000000000006</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="14">
+      <c r="L7" s="25"/>
+      <c r="M7" s="16">
         <v>109</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>144</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>1.64</v>
       </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="17">
+      <c r="R7" s="16"/>
+      <c r="S7" s="19">
         <v>1.51</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="14">
+      <c r="T7" s="19"/>
+      <c r="U7" s="16">
         <v>1.55</v>
       </c>
-      <c r="V7" s="14"/>
+      <c r="V7" s="16"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -876,46 +2127,46 @@
       <c r="B8">
         <v>1.29</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>988</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
         <v>209</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
         <v>291</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="19">
+      <c r="H8" s="13"/>
+      <c r="I8" s="21">
         <v>58.3</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="23">
+      <c r="J8" s="21"/>
+      <c r="K8" s="25">
         <v>76</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="14">
+      <c r="L8" s="25"/>
+      <c r="M8" s="16">
         <v>114</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <v>151</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16">
         <v>1.48</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="17">
+      <c r="R8" s="16"/>
+      <c r="S8" s="19">
         <v>1.36</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="14">
+      <c r="T8" s="19"/>
+      <c r="U8" s="16">
         <v>1.69</v>
       </c>
-      <c r="V8" s="14"/>
+      <c r="V8" s="16"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -924,46 +2175,46 @@
       <c r="B9">
         <v>1.26</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>977</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
         <v>273</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>358</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="19">
+      <c r="H9" s="16"/>
+      <c r="I9" s="21">
         <v>56.3</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="23">
+      <c r="J9" s="21"/>
+      <c r="K9" s="25">
         <v>97.1</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="14">
+      <c r="L9" s="25"/>
+      <c r="M9" s="16">
         <v>103</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>153</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>1.49</v>
       </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="17">
+      <c r="R9" s="16"/>
+      <c r="S9" s="19">
         <v>1.52</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="14">
+      <c r="T9" s="19"/>
+      <c r="U9" s="16">
         <v>1.41</v>
       </c>
-      <c r="V9" s="14"/>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -972,46 +2223,46 @@
       <c r="B10">
         <v>1.43</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>993</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
         <v>232</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <v>349</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="19">
+      <c r="H10" s="16"/>
+      <c r="I10" s="21">
         <v>52.5</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="23">
+      <c r="J10" s="21"/>
+      <c r="K10" s="25">
         <v>88.3</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="14">
+      <c r="L10" s="25"/>
+      <c r="M10" s="16">
         <v>120</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
         <v>147</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16">
         <v>1.78</v>
       </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="17">
+      <c r="R10" s="16"/>
+      <c r="S10" s="19">
         <v>1.2</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="14">
+      <c r="T10" s="19"/>
+      <c r="U10" s="16">
         <v>1.32</v>
       </c>
-      <c r="V10" s="14"/>
+      <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1020,46 +2271,46 @@
       <c r="B11">
         <v>1.35</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>967</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
         <v>226</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
         <v>353</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="19">
+      <c r="H11" s="16"/>
+      <c r="I11" s="21">
         <v>62</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="23">
+      <c r="J11" s="21"/>
+      <c r="K11" s="25">
         <v>90.1</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="14">
+      <c r="L11" s="25"/>
+      <c r="M11" s="16">
         <v>107</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>151</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>1.35</v>
       </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="17">
+      <c r="R11" s="16"/>
+      <c r="S11" s="19">
         <v>1.7</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="14">
+      <c r="T11" s="19"/>
+      <c r="U11" s="16">
         <v>1.63</v>
       </c>
-      <c r="V11" s="14"/>
+      <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1068,46 +2319,46 @@
       <c r="B12">
         <v>1.48</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>976</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
         <v>232</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <v>306</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="19">
+      <c r="H12" s="16"/>
+      <c r="I12" s="21">
         <v>52.2</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="23">
+      <c r="J12" s="21"/>
+      <c r="K12" s="25">
         <v>86.5</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="14">
+      <c r="L12" s="25"/>
+      <c r="M12" s="16">
         <v>101</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
         <v>148</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16">
         <v>1.47</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="17">
+      <c r="R12" s="16"/>
+      <c r="S12" s="19">
         <v>1.4</v>
       </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="14">
+      <c r="T12" s="19"/>
+      <c r="U12" s="16">
         <v>1.33</v>
       </c>
-      <c r="V12" s="14"/>
+      <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1116,46 +2367,46 @@
       <c r="B13">
         <v>1.28</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="16">
         <v>951</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <v>221</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <v>311</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="19">
+      <c r="H13" s="16"/>
+      <c r="I13" s="21">
         <v>55.7</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="23">
+      <c r="J13" s="21"/>
+      <c r="K13" s="25">
         <v>86.7</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="14">
+      <c r="L13" s="25"/>
+      <c r="M13" s="16">
         <v>111</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>151</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1.52</v>
       </c>
-      <c r="R13" s="14"/>
-      <c r="S13" s="17">
+      <c r="R13" s="16"/>
+      <c r="S13" s="19">
         <v>1.63</v>
       </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="14">
+      <c r="T13" s="19"/>
+      <c r="U13" s="16">
         <v>1.57</v>
       </c>
-      <c r="V13" s="14"/>
+      <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1164,46 +2415,46 @@
       <c r="B14">
         <v>1.42</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>978</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
         <v>250</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <v>344</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="19">
+      <c r="H14" s="16"/>
+      <c r="I14" s="21">
         <v>53.7</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="23">
+      <c r="J14" s="21"/>
+      <c r="K14" s="25">
         <v>87.4</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="14">
+      <c r="L14" s="25"/>
+      <c r="M14" s="16">
         <v>110</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16">
         <v>147</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14">
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16">
         <v>1.32</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="17">
+      <c r="R14" s="16"/>
+      <c r="S14" s="19">
         <v>1.6</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="14">
+      <c r="T14" s="19"/>
+      <c r="U14" s="16">
         <v>1.44</v>
       </c>
-      <c r="V14" s="14"/>
+      <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1212,46 +2463,46 @@
       <c r="B15" s="5">
         <v>1.31</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="17">
         <v>990</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
         <v>238</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <v>319</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="20">
+      <c r="H15" s="17"/>
+      <c r="I15" s="22">
         <v>61.2</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20">
+      <c r="J15" s="22"/>
+      <c r="K15" s="22">
         <v>81.3</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21">
+      <c r="L15" s="22"/>
+      <c r="M15" s="23">
         <v>113</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21">
+      <c r="N15" s="23"/>
+      <c r="O15" s="23">
         <v>149</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="15">
+      <c r="P15" s="23"/>
+      <c r="Q15" s="17">
         <v>1.28</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="18">
+      <c r="R15" s="17"/>
+      <c r="S15" s="20">
         <v>1.27</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="15">
+      <c r="T15" s="20"/>
+      <c r="U15" s="17">
         <v>1.29</v>
       </c>
-      <c r="V15" s="15"/>
+      <c r="V15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1261,56 +2512,56 @@
         <f>AVERAGE(B6:B15)</f>
         <v>1.359</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="24">
         <f>AVERAGE(C6:C15)</f>
         <v>986.4</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24">
         <f>AVERAGE(E6:E15)</f>
         <v>237.3</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24">
         <f>AVERAGE(G6:G15)</f>
         <v>329.1</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="11">
+      <c r="H16" s="24"/>
+      <c r="I16" s="13">
         <f>AVERAGE(I6:I15)</f>
         <v>56.720000000000006</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13">
         <f>AVERAGE(K6:K15)</f>
         <v>85.77</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
+      <c r="L16" s="13"/>
+      <c r="M16" s="13">
         <f>AVERAGE(M6:M15)</f>
         <v>109.3</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11">
+      <c r="N16" s="13"/>
+      <c r="O16" s="13">
         <f>AVERAGE(O6:O15)</f>
         <v>149</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13">
         <f>AVERAGE(Q6:Q15)</f>
         <v>1.4620000000000002</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="22">
+      <c r="R16" s="13"/>
+      <c r="S16" s="24">
         <f>AVERAGE(S6:S15)</f>
         <v>1.4650000000000001</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="11">
+      <c r="T16" s="24"/>
+      <c r="U16" s="13">
         <f>AVERAGE(U6:U15)</f>
         <v>1.4579999999999997</v>
       </c>
-      <c r="V16" s="11"/>
+      <c r="V16" s="13"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1320,323 +2571,323 @@
         <f>STDEV(B6:B15)</f>
         <v>7.4899933244295988E-2</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="18">
         <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
         <v>23.291390874932496</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
         <f t="shared" si="4"/>
         <v>17.981780903026383</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <f t="shared" si="4"/>
         <v>22.810572597421185</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
         <f t="shared" si="4"/>
         <v>3.4149345202767467</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
         <v>6.5856831249477983</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16">
+      <c r="L17" s="18"/>
+      <c r="M17" s="18">
         <f t="shared" ref="M17:N17" si="6">STDEV(M6:M15)</f>
         <v>5.6381636096240486</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18">
         <f t="shared" ref="O17:P17" si="7">STDEV(O6:O15)</f>
         <v>2.6246692913372702</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18">
         <f t="shared" si="5"/>
         <v>0.16081735671942288</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16">
+      <c r="R17" s="18"/>
+      <c r="S17" s="18">
         <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
         <v>0.15960019493165251</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16">
+      <c r="T17" s="18"/>
+      <c r="U17" s="18">
         <f t="shared" ref="U17" si="9">STDEV(U6:U15)</f>
         <v>0.14234543274099881</v>
       </c>
-      <c r="V17" s="16"/>
+      <c r="V17" s="18"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <f>AVERAGE(D25:D27)</f>
         <v>1410</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
         <f>AVERAGE(F25:F34)</f>
         <v>183</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
         <f>AVERAGE(H25:H34)</f>
         <v>177.8</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
         <f>AVERAGE(J25:J29)</f>
         <v>34</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13">
         <f>AVERAGE(L25:L32)</f>
         <v>34.375</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="16">
+      <c r="L18" s="13"/>
+      <c r="M18" s="18">
         <f>AVERAGE(N25:N39)</f>
         <v>31.6</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18">
         <f>AVERAGE(P25:P41)</f>
         <v>31.058823529411764</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="11">
+      <c r="P18" s="18"/>
+      <c r="Q18" s="13">
         <f>AVERAGE(R25:R34)</f>
         <v>24.5</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="16">
+      <c r="R18" s="13"/>
+      <c r="S18" s="18">
         <f>AVERAGE(T25:T39)</f>
         <v>17.466666666666665</v>
       </c>
-      <c r="T18" s="16"/>
-      <c r="U18" s="11">
+      <c r="T18" s="18"/>
+      <c r="U18" s="13">
         <f>AVERAGE(V25:V49)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="V18" s="11"/>
+      <c r="V18" s="13"/>
     </row>
     <row r="19" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="13">
         <f>SUM(D25:D44)</f>
         <v>4230</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
         <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
         <v>915</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
         <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
         <v>1778</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
         <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
         <v>170</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13">
         <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
         <v>348</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11">
+      <c r="L19" s="13"/>
+      <c r="M19" s="13">
         <f>SUM(N25:N39)</f>
         <v>474</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11">
+      <c r="N19" s="13"/>
+      <c r="O19" s="13">
         <f>SUM(P25:P41)</f>
         <v>528</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13">
         <f t="shared" ref="Q19:R19" si="14">SUM(R25:R44)</f>
         <v>245</v>
       </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13">
         <f>SUM(T25:T44)</f>
         <v>262</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11">
+      <c r="T19" s="13"/>
+      <c r="U19" s="13">
         <f>SUM(V25:V49)</f>
         <v>415</v>
       </c>
-      <c r="V19" s="11"/>
+      <c r="V19" s="13"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
         <v>5</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <v>10</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
         <v>5</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
         <v>10</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13">
         <f>COUNTA(M25:M39)</f>
         <v>15</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11">
-        <f>COUNTA(O25:O41)</f>
-        <v>17</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11">
+      <c r="N20" s="13"/>
+      <c r="O20" s="13">
+        <f>COUNTA(O25:O44)</f>
+        <v>20</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13">
         <v>10</v>
       </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13">
         <v>15</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11">
+      <c r="T20" s="13"/>
+      <c r="U20" s="13">
         <v>25</v>
       </c>
-      <c r="V20" s="11"/>
+      <c r="V20" s="13"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="14">
         <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
         <v>0.23319148936170211</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
         <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
         <v>0.25934426229508201</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
         <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
         <v>0.18509561304836897</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14">
         <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
         <v>0.33364705882352946</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
         <f>K16/SUM(L25:L32)</f>
         <v>0.31189090909090905</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14">
         <f>M16/SUM(N25:N39)</f>
         <v>0.23059071729957806</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12">
-        <f>O16/SUM(P25:P41)</f>
-        <v>0.28219696969696972</v>
-      </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12">
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
+        <f>O16/SUM(P25:P44)</f>
+        <v>0.2295839753466872</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14">
         <f>Q16/SUM(R25:R34)</f>
         <v>5.9673469387755106E-3</v>
       </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12">
+      <c r="R21" s="14"/>
+      <c r="S21" s="14">
         <f>S16/SUM(T25:T39)</f>
         <v>5.5916030534351145E-3</v>
       </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14">
         <f>U16/SUM(V25:V49)</f>
         <v>3.5132530120481923E-3</v>
       </c>
-      <c r="V21" s="12"/>
+      <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="13">
+        <v>36</v>
+      </c>
+      <c r="C22" s="15">
         <f t="shared" ref="C22" si="19">C17/C16</f>
         <v>2.3612521162745839E-2</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
         <f t="shared" ref="E22" si="20">E17/E16</f>
         <v>7.5776573548362341E-2</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15">
         <f t="shared" ref="G22" si="21">G17/G16</f>
         <v>6.9311979937469417E-2</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15">
         <f t="shared" ref="I22" si="22">I17/I16</f>
         <v>6.0206885054244472E-2</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13">
+      <c r="J22" s="15"/>
+      <c r="K22" s="15">
         <f>K17/K16</f>
         <v>7.6783060801536657E-2</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13">
+      <c r="L22" s="15"/>
+      <c r="M22" s="15">
         <f>M17/M16</f>
         <v>5.1584296519890653E-2</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13">
+      <c r="N22" s="15"/>
+      <c r="O22" s="15">
         <f>O17/O16</f>
         <v>1.7615230143203157E-2</v>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15">
         <f>Q17/Q16</f>
         <v>0.10999819201054915</v>
       </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13">
+      <c r="R22" s="15"/>
+      <c r="S22" s="15">
         <f>S17/S16</f>
         <v>0.10894211258133277</v>
       </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13">
+      <c r="T22" s="15"/>
+      <c r="U22" s="15">
         <f>U17/U16</f>
         <v>9.763061230521182E-2</v>
       </c>
-      <c r="V22" s="13"/>
+      <c r="V22" s="15"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
@@ -1690,7 +2941,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>2280</v>
@@ -1732,19 +2983,19 @@
         <v>37</v>
       </c>
       <c r="Q25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R25">
         <v>23</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25">
         <v>17</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V25" s="7">
         <v>17</v>
@@ -1752,7 +3003,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>1016</v>
@@ -1794,19 +3045,19 @@
         <v>81</v>
       </c>
       <c r="Q26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R26">
         <v>21</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T26">
         <v>6</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V26" s="7">
         <v>6</v>
@@ -1814,13 +3065,13 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27">
         <v>934</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27">
         <v>118</v>
@@ -1856,19 +3107,19 @@
         <v>17</v>
       </c>
       <c r="Q27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R27">
         <v>32</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T27">
         <v>4</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V27" s="7">
         <v>4</v>
@@ -1882,7 +3133,7 @@
         <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>209</v>
@@ -1912,19 +3163,19 @@
         <v>17</v>
       </c>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R28">
         <v>5</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T28">
         <v>37</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V28" s="7">
         <v>37</v>
@@ -1968,19 +3219,19 @@
         <v>18</v>
       </c>
       <c r="Q29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R29">
         <v>6</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T29">
         <v>21</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V29" s="7">
         <v>21</v>
@@ -1993,38 +3244,38 @@
       <c r="H30">
         <v>182</v>
       </c>
-      <c r="K30" t="s">
-        <v>35</v>
+      <c r="K30" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="L30">
         <v>23</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N30" s="10">
         <v>23</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="P30" s="10">
         <v>23</v>
       </c>
       <c r="Q30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R30">
         <v>37</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T30">
         <v>52</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V30" s="7">
         <v>52</v>
@@ -2038,37 +3289,37 @@
         <v>187</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31">
         <v>40</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" s="10">
         <v>40</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="10">
         <v>40</v>
       </c>
       <c r="Q31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R31">
         <v>17</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T31">
         <v>31</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V31" s="7">
         <v>31</v>
@@ -2076,43 +3327,43 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>118</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L32">
         <v>42</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N32" s="10">
         <v>42</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P32" s="10">
         <v>42</v>
       </c>
       <c r="Q32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R32">
         <v>21</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T32">
         <v>23</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V32" s="7">
         <v>23</v>
@@ -2144,19 +3395,19 @@
         <v>49</v>
       </c>
       <c r="Q33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R33">
         <v>52</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T33">
         <v>3</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" s="7">
         <v>3</v>
@@ -2188,19 +3439,19 @@
         <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R34">
         <v>31</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T34">
         <v>21</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V34" s="7">
         <v>21</v>
@@ -2220,13 +3471,13 @@
         <v>14</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V35" s="7">
         <v>3</v>
@@ -2246,13 +3497,13 @@
         <v>30</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T36">
         <v>18</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V36" s="7">
         <v>18</v>
@@ -2273,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T37" s="7">
         <v>13</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V37" s="7">
         <v>13</v>
@@ -2300,13 +3551,13 @@
         <v>24</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T38">
         <v>8</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V38" s="7">
         <v>8</v>
@@ -2327,13 +3578,13 @@
         <v>33</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T39">
         <v>5</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V39" s="7">
         <v>5</v>
@@ -2348,7 +3599,7 @@
         <v>27</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V40">
         <v>23</v>
@@ -2363,7 +3614,7 @@
         <v>27</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V41">
         <v>9</v>
@@ -2378,7 +3629,7 @@
         <v>32</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V42">
         <v>10</v>
@@ -2393,7 +3644,7 @@
         <v>76</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V43">
         <v>25</v>
@@ -2408,7 +3659,7 @@
         <v>13</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V44">
         <v>4</v>
@@ -2417,7 +3668,7 @@
     <row r="45" spans="7:22" x14ac:dyDescent="0.25">
       <c r="L45" s="10"/>
       <c r="U45" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V45">
         <v>11</v>
@@ -2425,7 +3676,7 @@
     </row>
     <row r="46" spans="7:22" x14ac:dyDescent="0.25">
       <c r="U46" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V46">
         <v>12</v>
@@ -2433,7 +3684,7 @@
     </row>
     <row r="47" spans="7:22" x14ac:dyDescent="0.25">
       <c r="U47" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V47">
         <v>22</v>
@@ -2441,7 +3692,7 @@
     </row>
     <row r="48" spans="7:22" x14ac:dyDescent="0.25">
       <c r="U48" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V48">
         <v>32</v>
@@ -2449,7 +3700,7 @@
     </row>
     <row r="49" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -2643,29 +3894,1770 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:V49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16:P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="10"/>
+    <col min="11" max="11" width="31.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="10"/>
+    <col min="21" max="21" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="e">
+        <f>AVERAGE(C21:L21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="8" t="e">
+        <f>AVERAGE(C22:L22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
+        <v>JS Only Average Size = 1410</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="str">
+        <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
+        <v>JS Only Average Size = 183</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="str">
+        <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
+        <v>JS Only Average Size = 177.8</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="str">
+        <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
+        <v>JS Only Average Size = 34</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="str">
+        <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
+        <v>JS Only Average Size = 34.375</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="str">
+        <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
+        <v>JS Only Average Size = 31.6</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="str">
+        <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
+        <v>JS Only Average Size = 31.1</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="str">
+        <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
+        <v>CSS Only Average Size = 24.5</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="str">
+        <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
+        <v>CSS Only Average Size = 17.5</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="str">
+        <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
+        <v>CSS Only Average Size = 16.6</v>
+      </c>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
+        <v>101</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
+        <v>106</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
+        <v>104</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
+        <v>110</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
+        <v>110</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
+        <v>107</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
+        <v>100</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
+        <v>112</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16">
+        <v>100</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23">
+        <v>100</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="e">
+        <f>AVERAGE(B6:B15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="24" t="e">
+        <f>AVERAGE(C6:C15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="e">
+        <f>AVERAGE(E6:E15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="e">
+        <f>AVERAGE(G6:G15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="13" t="e">
+        <f>AVERAGE(I6:I15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13" t="e">
+        <f>AVERAGE(K6:K15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13" t="e">
+        <f>AVERAGE(M6:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13">
+        <f>AVERAGE(O6:O15)</f>
+        <v>105</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13" t="e">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="24" t="e">
+        <f>AVERAGE(S6:S15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="24"/>
+      <c r="U16" s="13" t="e">
+        <f>AVERAGE(U6:U15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="e">
+        <f>STDEV(B6:B15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="18" t="e">
+        <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="e">
+        <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18" t="e">
+        <f t="shared" ref="M17:N17" si="6">STDEV(M6:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18">
+        <f t="shared" ref="O17:P17" si="7">STDEV(O6:O15)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18" t="e">
+        <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18" t="e">
+        <f t="shared" ref="U17" si="9">STDEV(U6:U15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="13">
+        <f>AVERAGE(D25:D27)</f>
+        <v>1410</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <f>AVERAGE(F25:F34)</f>
+        <v>183</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
+        <f>AVERAGE(H25:H34)</f>
+        <v>177.8</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
+        <f>AVERAGE(J25:J29)</f>
+        <v>34</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13">
+        <f>AVERAGE(L25:L32)</f>
+        <v>34.375</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="18">
+        <f>AVERAGE(N25:N39)</f>
+        <v>31.6</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18">
+        <f>AVERAGE(P25:P41)</f>
+        <v>31.058823529411764</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="13">
+        <f>AVERAGE(R25:R34)</f>
+        <v>24.5</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="18">
+        <f>AVERAGE(T25:T39)</f>
+        <v>17.466666666666665</v>
+      </c>
+      <c r="T18" s="18"/>
+      <c r="U18" s="13">
+        <f>AVERAGE(V25:V49)</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="13">
+        <f>SUM(D25:D44)</f>
+        <v>4230</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
+        <v>915</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
+        <v>1778</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
+        <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
+        <v>170</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13">
+        <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
+        <v>348</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13">
+        <f>SUM(N25:N39)</f>
+        <v>474</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13">
+        <f>SUM(P25:P41)</f>
+        <v>528</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13">
+        <f t="shared" ref="Q19:R19" si="14">SUM(R25:R44)</f>
+        <v>245</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13">
+        <f>SUM(T25:T44)</f>
+        <v>262</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13">
+        <f>SUM(V25:V49)</f>
+        <v>415</v>
+      </c>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
+        <v>10</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
+        <v>5</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
+        <v>10</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13">
+        <f>COUNTA(M25:M39)</f>
+        <v>15</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13">
+        <f>COUNTA(O25:O44)</f>
+        <v>20</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13">
+        <v>10</v>
+      </c>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13">
+        <v>15</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13">
+        <v>25</v>
+      </c>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14" t="e">
+        <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="e">
+        <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="e">
+        <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="e">
+        <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="e">
+        <f>K16/SUM(L25:L32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14" t="e">
+        <f>M16/SUM(N25:N39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
+        <f>O16/SUM(P25:P44)</f>
+        <v>0.16178736517719569</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14" t="e">
+        <f>Q16/SUM(R25:R34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14" t="e">
+        <f>S16/SUM(T25:T39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14" t="e">
+        <f>U16/SUM(V25:V49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" s="14"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="15" t="e">
+        <f t="shared" ref="C22" si="19">C17/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="e">
+        <f t="shared" ref="E22" si="20">E17/E16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="e">
+        <f t="shared" ref="G22" si="21">G17/G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="e">
+        <f t="shared" ref="I22" si="22">I17/I16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="e">
+        <f>K17/K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15" t="e">
+        <f>M17/M16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15">
+        <f>O17/O16</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15" t="e">
+        <f>Q17/Q16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15" t="e">
+        <f>S17/S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15" t="e">
+        <f>U17/U16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2280</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="10">
+        <v>248</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="10">
+        <v>248</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="10">
+        <v>37</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="10">
+        <v>37</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="10">
+        <v>37</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="10">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="10">
+        <v>23</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" s="10">
+        <v>17</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1016</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="10">
+        <v>182</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="9">
+        <v>163</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="10">
+        <v>81</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="10">
+        <v>81</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="10">
+        <v>81</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="10">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="10">
+        <v>21</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="10">
+        <v>6</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="10">
+        <v>934</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="10">
+        <v>118</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="10">
+        <v>204</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="10">
+        <v>17</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="10">
+        <v>17</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="10">
+        <v>17</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="10">
+        <v>32</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T27" s="10">
+        <v>4</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V27" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="10">
+        <v>204</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="10">
+        <v>209</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="10">
+        <v>17</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="10">
+        <v>17</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="10">
+        <v>17</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" s="10">
+        <v>5</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" s="10">
+        <v>37</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V28" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9">
+        <v>163</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="10">
+        <v>119</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="10">
+        <v>18</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="10">
+        <v>18</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="10">
+        <v>18</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="10">
+        <v>6</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="10">
+        <v>21</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="10">
+        <v>182</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="10">
+        <v>23</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="10">
+        <v>23</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="10">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="10">
+        <v>37</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="10">
+        <v>52</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="10">
+        <v>187</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="10">
+        <v>40</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="10">
+        <v>40</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="10">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="10">
+        <v>17</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="10">
+        <v>31</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="10">
+        <v>118</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="10">
+        <v>42</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="10">
+        <v>42</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="10">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="10">
+        <v>21</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="10">
+        <v>23</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="10">
+        <v>170</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="10">
+        <v>49</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="10">
+        <v>49</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" s="10">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="10">
+        <v>52</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" s="10">
+        <v>3</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="10">
+        <v>178</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="10">
+        <v>24</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="10">
+        <v>24</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="10">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="10">
+        <v>31</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="10">
+        <v>21</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="M35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="10">
+        <v>14</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="10">
+        <v>14</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T35" s="10">
+        <v>3</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V35" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="M36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" s="10">
+        <v>30</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" s="10">
+        <v>30</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="10">
+        <v>18</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="M37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" s="10">
+        <v>25</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" s="10">
+        <v>25</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" s="10">
+        <v>13</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="M38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="10">
+        <v>24</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="10">
+        <v>24</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T38" s="10">
+        <v>8</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="M39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" s="10">
+        <v>33</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" s="10">
+        <v>33</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="10">
+        <v>5</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="O40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="10">
+        <v>27</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V40" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="O41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="10">
+        <v>27</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="O42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="10">
+        <v>32</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V42" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="O43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="10">
+        <v>76</v>
+      </c>
+      <c r="U43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V43" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="O44" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" s="10">
+        <v>13</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V44" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V45" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U46" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V46" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="V47" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V49" s="10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="180">
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Load Times.xlsx
+++ b/Load Times.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="WebSocket" sheetId="1" r:id="rId1"/>
     <sheet name="Normal" sheetId="4" r:id="rId2"/>
+    <sheet name="WebSocket (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="82">
   <si>
     <t>Overhead Test</t>
   </si>
@@ -335,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -354,18 +355,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,25 +476,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.23319148936170211</c:v>
+                  <c:v>0.35631205673758864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25934426229508201</c:v>
+                  <c:v>0.48775956284153005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18509561304836897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33364705882352946</c:v>
+                  <c:v>1.3652941176470588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31189090909090905</c:v>
+                  <c:v>1.0141818181818181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23059071729957806</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2295839753466872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,11 +509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141601024"/>
-        <c:axId val="141599488"/>
+        <c:axId val="133957504"/>
+        <c:axId val="185917440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141601024"/>
+        <c:axId val="133957504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,12 +523,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141599488"/>
+        <c:crossAx val="185917440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141599488"/>
+        <c:axId val="185917440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141601024"/>
+        <c:crossAx val="133957504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -648,25 +652,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.23319148936170211</c:v>
+                  <c:v>0.35631205673758864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25934426229508201</c:v>
+                  <c:v>0.48775956284153005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18509561304836897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33364705882352946</c:v>
+                  <c:v>1.3652941176470588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31189090909090905</c:v>
+                  <c:v>1.0141818181818181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23059071729957806</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2295839753466872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,11 +685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142468224"/>
-        <c:axId val="142469760"/>
+        <c:axId val="130645376"/>
+        <c:axId val="130651264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142468224"/>
+        <c:axId val="130645376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,12 +699,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142469760"/>
+        <c:crossAx val="130651264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142469760"/>
+        <c:axId val="130651264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142468224"/>
+        <c:crossAx val="130645376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -767,7 +771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -824,25 +827,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.23319148936170211</c:v>
+                  <c:v>0.35631205673758864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25934426229508201</c:v>
+                  <c:v>0.48775956284153005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18509561304836897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33364705882352946</c:v>
+                  <c:v>1.3652941176470588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31189090909090905</c:v>
+                  <c:v>1.0141818181818181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23059071729957806</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2295839753466872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146646144"/>
-        <c:axId val="201317760"/>
+        <c:axId val="130663552"/>
+        <c:axId val="130665088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146646144"/>
+        <c:axId val="130663552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,12 +874,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201317760"/>
+        <c:crossAx val="130665088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201317760"/>
+        <c:axId val="130665088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,14 +890,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146646144"/>
+        <c:crossAx val="130663552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -943,7 +945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1033,11 +1034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142080256"/>
-        <c:axId val="144969728"/>
+        <c:axId val="130151168"/>
+        <c:axId val="130152704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142080256"/>
+        <c:axId val="130151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,12 +1048,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144969728"/>
+        <c:crossAx val="130152704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144969728"/>
+        <c:axId val="130152704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,14 +1064,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142080256"/>
+        <c:crossAx val="130151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1208,11 +1208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146303232"/>
-        <c:axId val="146411520"/>
+        <c:axId val="130701952"/>
+        <c:axId val="130716032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146303232"/>
+        <c:axId val="130701952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,12 +1222,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146411520"/>
+        <c:crossAx val="130716032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146411520"/>
+        <c:axId val="130716032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146303232"/>
+        <c:crossAx val="130701952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1382,11 +1382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146648448"/>
-        <c:axId val="146687104"/>
+        <c:axId val="130732416"/>
+        <c:axId val="130733952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146648448"/>
+        <c:axId val="130732416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,12 +1396,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146687104"/>
+        <c:crossAx val="130733952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146687104"/>
+        <c:axId val="130733952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1412,531 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146648448"/>
+        <c:crossAx val="130732416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Files vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'WebSocket (2)'!$C$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'WebSocket (2)'!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.24354609929078017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27245901639344261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19640044994375702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53929411764705881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42509090909090913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32215189873417721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28582434514637906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="126250368"/>
+        <c:axId val="126260352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126250368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126260352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126260352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126250368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data vs.Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'WebSocket (2)'!$C$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'WebSocket (2)'!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.24354609929078017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27245901639344261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19640044994375702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53929411764705881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42509090909090913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32215189873417721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28582434514637906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="126272640"/>
+        <c:axId val="126274176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126272640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126274176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126274176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126272640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average File Size vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'WebSocket (2)'!$C$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>31.058823529411764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'WebSocket (2)'!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.24354609929078017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27245901639344261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19640044994375702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53929411764705881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42509090909090913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32215189873417721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28582434514637906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="126339712"/>
+        <c:axId val="126398848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126339712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126398848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126398848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126339712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1531,6 +2055,107 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857251</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1918,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V49"/>
+  <dimension ref="A2:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,951 +2570,902 @@
     <col min="18" max="18" width="4.85546875" customWidth="1"/>
     <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="e">
         <f>AVERAGE(C21:L21)</f>
-        <v>0.26463386652391829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="8" t="e">
         <f>AVERAGE(C22:L22)</f>
-        <v>6.1138204100871743E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="16" t="str">
         <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
         <v>JS Only Average Size = 1410</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="str">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="str">
         <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
         <v>JS Only Average Size = 183</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="str">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="str">
         <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
         <v>JS Only Average Size = 177.8</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="str">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="str">
         <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
         <v>JS Only Average Size = 34</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="str">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
         <v>JS Only Average Size = 34.375</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="str">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
         <v>JS Only Average Size = 31.6</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="str">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
         <v>JS Only Average Size = 31.1</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13" t="str">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
         <v>CSS Only Average Size = 24.5</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13" t="str">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
         <v>CSS Only Average Size = 17.5</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13" t="str">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
         <v>CSS Only Average Size = 16.6</v>
       </c>
-      <c r="V5" s="13"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V5" s="16"/>
+      <c r="W5" s="16" t="str">
+        <f xml:space="preserve"> "Mix Average Size = " &amp; ROUND(W18, 1)</f>
+        <v>Mix Average Size = 121.9</v>
+      </c>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1.35</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1008</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>240</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
-        <v>341</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="21">
-        <v>56.2</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="25">
-        <v>88.9</v>
-      </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="16">
-        <v>105</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16">
-        <v>149</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16">
-        <v>1.29</v>
-      </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="19">
-        <v>1.46</v>
-      </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="16">
-        <v>1.35</v>
-      </c>
-      <c r="V6" s="16"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.42</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1560</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16">
+        <v>456</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="28">
+        <v>226</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="26">
+        <v>285</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
+        <v>247</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1.42</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1036</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>252</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
-        <v>319</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="21">
-        <v>59.1</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="25">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="16">
-        <v>109</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
-        <v>144</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
-        <v>1.64</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="19">
-        <v>1.51</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="16">
-        <v>1.55</v>
-      </c>
-      <c r="V7" s="16"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.57</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1504</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
+        <v>463</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="28">
+        <v>230</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="26">
+        <v>282</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17">
+        <v>246</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1.29</v>
-      </c>
-      <c r="C8" s="13">
-        <v>988</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
-        <v>209</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
-        <v>291</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="21">
-        <v>58.3</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="25">
-        <v>76</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="16">
-        <v>114</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16">
-        <v>151</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16">
-        <v>1.48</v>
-      </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="19">
-        <v>1.36</v>
-      </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="16">
-        <v>1.69</v>
-      </c>
-      <c r="V8" s="16"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.37</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1492</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16">
+        <v>430</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="28">
+        <v>244</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="26">
+        <v>281</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
+        <v>233</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1.26</v>
-      </c>
-      <c r="C9" s="16">
-        <v>977</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16">
-        <v>273</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16">
-        <v>358</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="21">
-        <v>56.3</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="25">
-        <v>97.1</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="16">
-        <v>103</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
-        <v>153</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
-        <v>1.49</v>
-      </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="19">
-        <v>1.52</v>
-      </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="16">
-        <v>1.41</v>
-      </c>
-      <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.43</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1579</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>435</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="28">
+        <v>227</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="26">
+        <v>277</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1.43</v>
-      </c>
-      <c r="C10" s="16">
-        <v>993</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16">
-        <v>232</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16">
-        <v>349</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="21">
-        <v>52.5</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="25">
-        <v>88.3</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="16">
-        <v>120</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16">
-        <v>147</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16">
-        <v>1.78</v>
-      </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="T10" s="19"/>
-      <c r="U10" s="16">
-        <v>1.32</v>
-      </c>
-      <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.45</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1510</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>447</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="28">
+        <v>234</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="26">
+        <v>269</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1.35</v>
-      </c>
-      <c r="C11" s="16">
-        <v>967</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16">
-        <v>226</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16">
-        <v>353</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="21">
-        <v>62</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="25">
-        <v>90.1</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="16">
-        <v>107</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
-        <v>151</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
-        <v>1.35</v>
-      </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="19">
-        <v>1.7</v>
-      </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="16">
-        <v>1.63</v>
-      </c>
-      <c r="V11" s="16"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.49</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1462</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>457</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="28">
+        <v>223</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="26">
+        <v>289</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1.48</v>
-      </c>
-      <c r="C12" s="16">
-        <v>976</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16">
-        <v>232</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
-        <v>306</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="21">
-        <v>52.2</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="25">
-        <v>86.5</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="16">
-        <v>101</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16">
-        <v>148</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16">
-        <v>1.47</v>
-      </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="16">
-        <v>1.33</v>
-      </c>
-      <c r="V12" s="16"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.49</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1475</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <v>461</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="28">
+        <v>225</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="26">
+        <v>292</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1.28</v>
-      </c>
-      <c r="C13" s="16">
-        <v>951</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16">
-        <v>221</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16">
-        <v>311</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="21">
-        <v>55.7</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="25">
-        <v>86.7</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="16">
-        <v>111</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
-        <v>151</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
-        <v>1.52</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="19">
-        <v>1.63</v>
-      </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="16">
-        <v>1.57</v>
-      </c>
-      <c r="V13" s="16"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.46</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1479</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>419</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="28">
+        <v>232</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26">
+        <v>278</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1.42</v>
-      </c>
-      <c r="C14" s="16">
-        <v>978</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16">
-        <v>250</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
-        <v>344</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="21">
-        <v>53.7</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="25">
-        <v>87.4</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="16">
-        <v>110</v>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16">
-        <v>147</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16">
-        <v>1.32</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="T14" s="19"/>
-      <c r="U14" s="16">
-        <v>1.44</v>
-      </c>
-      <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.52</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1519</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
+        <v>442</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="28">
+        <v>238</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26">
+        <v>261</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>1.31</v>
-      </c>
-      <c r="C15" s="17">
-        <v>990</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17">
-        <v>238</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
-        <v>319</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="22">
-        <v>61.2</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22">
-        <v>81.3</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23">
-        <v>113</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23">
-        <v>149</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="17">
-        <v>1.28</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="20">
-        <v>1.27</v>
-      </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="17">
-        <v>1.29</v>
-      </c>
-      <c r="V15" s="17"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.43</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1492</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25">
+        <v>453</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="27">
+        <v>242</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27">
+        <v>275</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
         <f>AVERAGE(B6:B15)</f>
-        <v>1.359</v>
-      </c>
-      <c r="C16" s="24">
+        <v>1.4629999999999999</v>
+      </c>
+      <c r="C16" s="22">
         <f>AVERAGE(C6:C15)</f>
-        <v>986.4</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24">
+        <v>1507.2</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22">
         <f>AVERAGE(E6:E15)</f>
-        <v>237.3</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24">
+        <v>446.3</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="e">
         <f>AVERAGE(G6:G15)</f>
-        <v>329.1</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="16">
         <f>AVERAGE(I6:I15)</f>
-        <v>56.720000000000006</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13">
+        <v>232.1</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16">
         <f>AVERAGE(K6:K15)</f>
-        <v>85.77</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13">
+        <v>278.89999999999998</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16" t="e">
         <f>AVERAGE(M6:M15)</f>
-        <v>109.3</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16" t="e">
         <f>AVERAGE(O6:O15)</f>
-        <v>149</v>
-      </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16">
         <f>AVERAGE(Q6:Q15)</f>
-        <v>1.4620000000000002</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="24">
+        <v>242</v>
+      </c>
+      <c r="R16" s="16"/>
+      <c r="S16" s="22" t="e">
         <f>AVERAGE(S6:S15)</f>
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="22"/>
+      <c r="U16" s="16" t="e">
         <f>AVERAGE(U6:U15)</f>
-        <v>1.4579999999999997</v>
-      </c>
-      <c r="V16" s="13"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16" t="e">
+        <f>AVERAGE(W6:W15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
         <f>STDEV(B6:B15)</f>
-        <v>7.4899933244295988E-2</v>
-      </c>
-      <c r="C17" s="18">
+        <v>5.6774407379851489E-2</v>
+      </c>
+      <c r="C17" s="19">
         <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
-        <v>23.291390874932496</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18">
+        <v>37.174662816971932</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
         <f t="shared" si="4"/>
-        <v>17.981780903026383</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18">
+        <v>14.552968387545164</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="e">
         <f t="shared" si="4"/>
-        <v>22.810572597421185</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
         <f t="shared" si="4"/>
-        <v>3.4149345202767467</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18">
+        <v>7.2945946502263652</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19">
         <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
-        <v>6.5856831249477983</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18">
-        <f t="shared" ref="M17:N17" si="6">STDEV(M6:M15)</f>
-        <v>5.6381636096240486</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18">
-        <f t="shared" ref="O17:P17" si="7">STDEV(O6:O15)</f>
-        <v>2.6246692913372702</v>
-      </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18">
+        <v>9.206881484339128</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19" t="e">
+        <f t="shared" ref="M17" si="6">STDEV(M6:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19" t="e">
+        <f t="shared" ref="O17" si="7">STDEV(O6:O15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19">
         <f t="shared" si="5"/>
-        <v>0.16081735671942288</v>
-      </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19" t="e">
         <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
-        <v>0.15960019493165251</v>
-      </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18">
-        <f t="shared" ref="U17" si="9">STDEV(U6:U15)</f>
-        <v>0.14234543274099881</v>
-      </c>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="e">
+        <f t="shared" ref="U17:W17" si="9">STDEV(U6:U15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" s="19"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="16">
         <f>AVERAGE(D25:D27)</f>
         <v>1410</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
         <f>AVERAGE(F25:F34)</f>
         <v>183</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
         <f>AVERAGE(H25:H34)</f>
         <v>177.8</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
         <f>AVERAGE(J25:J29)</f>
         <v>34</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16">
         <f>AVERAGE(L25:L32)</f>
         <v>34.375</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="18">
+      <c r="L18" s="16"/>
+      <c r="M18" s="19">
         <f>AVERAGE(N25:N39)</f>
         <v>31.6</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
         <f>AVERAGE(P25:P41)</f>
         <v>31.058823529411764</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="13">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="16">
         <f>AVERAGE(R25:R34)</f>
         <v>24.5</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="18">
+      <c r="R18" s="16"/>
+      <c r="S18" s="28">
         <f>AVERAGE(T25:T39)</f>
         <v>17.466666666666665</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="13">
+      <c r="T18" s="28"/>
+      <c r="U18" s="16">
         <f>AVERAGE(V25:V49)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="V18" s="13"/>
-    </row>
-    <row r="19" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="16"/>
+      <c r="W18" s="28">
+        <f>AVERAGE(X25:X82)</f>
+        <v>121.93103448275862</v>
+      </c>
+      <c r="X18" s="28"/>
+    </row>
+    <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="16">
         <f>SUM(D25:D44)</f>
         <v>4230</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16">
         <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
         <v>915</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
         <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
         <v>1778</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16">
         <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
         <v>170</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16">
         <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
         <v>348</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16">
         <f>SUM(N25:N39)</f>
         <v>474</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13">
+      <c r="N19" s="16"/>
+      <c r="O19" s="16">
         <f>SUM(P25:P41)</f>
         <v>528</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13">
-        <f t="shared" ref="Q19:R19" si="14">SUM(R25:R44)</f>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16">
+        <f t="shared" ref="Q19" si="14">SUM(R25:R44)</f>
         <v>245</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13">
+      <c r="R19" s="16"/>
+      <c r="S19" s="16">
         <f>SUM(T25:T44)</f>
         <v>262</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13">
+      <c r="T19" s="16"/>
+      <c r="U19" s="16">
         <f>SUM(V25:V49)</f>
         <v>415</v>
       </c>
-      <c r="V19" s="13"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="16"/>
+      <c r="W19" s="16">
+        <f>SUM(X25:X82)</f>
+        <v>7072</v>
+      </c>
+      <c r="X19" s="16"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="16">
         <v>3</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <v>10</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
         <v>5</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
         <v>10</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16">
         <f>COUNTA(M25:M39)</f>
         <v>15</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16">
         <f>COUNTA(O25:O44)</f>
         <v>20</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13">
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16">
         <v>10</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13">
+      <c r="R20" s="16"/>
+      <c r="S20" s="16">
         <v>15</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13">
+      <c r="T20" s="16"/>
+      <c r="U20" s="16">
         <v>25</v>
       </c>
-      <c r="V20" s="13"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="16"/>
+      <c r="W20" s="16">
+        <f>COUNT(X25:X82)</f>
+        <v>58</v>
+      </c>
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="20">
         <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
-        <v>0.23319148936170211</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14">
+        <v>0.35631205673758864</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
         <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
-        <v>0.25934426229508201</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
+        <v>0.48775956284153005</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="e">
         <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
-        <v>0.18509561304836897</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20">
         <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
-        <v>0.33364705882352946</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14">
+        <v>1.3652941176470588</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
         <f>K16/SUM(L25:L32)</f>
-        <v>0.31189090909090905</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14">
+        <v>1.0141818181818181</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20" t="e">
         <f>M16/SUM(N25:N39)</f>
-        <v>0.23059071729957806</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20" t="e">
         <f>O16/SUM(P25:P44)</f>
-        <v>0.2295839753466872</v>
-      </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20">
         <f>Q16/SUM(R25:R34)</f>
-        <v>5.9673469387755106E-3</v>
-      </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14">
+        <v>0.98775510204081629</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20" t="e">
         <f>S16/SUM(T25:T39)</f>
-        <v>5.5916030534351145E-3</v>
-      </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20" t="e">
         <f>U16/SUM(V25:V49)</f>
-        <v>3.5132530120481923E-3</v>
-      </c>
-      <c r="V21" s="14"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20" t="e">
+        <f>W16/SUM(X25:X82)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="15">
-        <f t="shared" ref="C22" si="19">C17/C16</f>
-        <v>2.3612521162745839E-2</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
+      <c r="C22" s="21">
+        <f t="shared" ref="A22:C22" si="19">C17/C16</f>
+        <v>2.4664717898734031E-2</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21">
         <f t="shared" ref="E22" si="20">E17/E16</f>
-        <v>7.5776573548362341E-2</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
+        <v>3.2608040303708632E-2</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="e">
         <f t="shared" ref="G22" si="21">G17/G16</f>
-        <v>6.9311979937469417E-2</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21">
         <f t="shared" ref="I22" si="22">I17/I16</f>
-        <v>6.0206885054244472E-2</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15">
+        <v>3.1428671478786578E-2</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21">
         <f>K17/K16</f>
-        <v>7.6783060801536657E-2</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15">
+        <v>3.3011407258297341E-2</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21" t="e">
         <f>M17/M16</f>
-        <v>5.1584296519890653E-2</v>
-      </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21" t="e">
         <f>O17/O16</f>
-        <v>1.7615230143203157E-2</v>
-      </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21">
         <f>Q17/Q16</f>
-        <v>0.10999819201054915</v>
-      </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15">
+        <v>3.2273758991349807E-2</v>
+      </c>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21" t="e">
         <f>S17/S16</f>
-        <v>0.10894211258133277</v>
-      </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21" t="e">
         <f>U17/U16</f>
-        <v>9.763061230521182E-2</v>
-      </c>
-      <c r="V22" s="15"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21" t="e">
+        <f>W17/W16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="21"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2938,8 +3514,26 @@
       <c r="R24" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -3000,8 +3594,14 @@
       <c r="V25" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="X25" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>45</v>
       </c>
@@ -3062,8 +3662,14 @@
       <c r="V26" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>46</v>
       </c>
@@ -3124,8 +3730,14 @@
       <c r="V27" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>14</v>
       </c>
@@ -3180,8 +3792,14 @@
       <c r="V28" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X28" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E29" s="9" t="s">
         <v>15</v>
       </c>
@@ -3236,8 +3854,14 @@
       <c r="V29" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X29" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>17</v>
       </c>
@@ -3280,8 +3904,14 @@
       <c r="V30" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X30" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>18</v>
       </c>
@@ -3324,8 +3954,14 @@
       <c r="V31" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>42</v>
       </c>
@@ -3368,8 +4004,14 @@
       <c r="V32" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>19</v>
       </c>
@@ -3412,8 +4054,14 @@
       <c r="V33" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X33" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:24" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>20</v>
       </c>
@@ -3456,8 +4104,14 @@
       <c r="V34" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="7:24" x14ac:dyDescent="0.25">
       <c r="M35" s="10" t="s">
         <v>75</v>
       </c>
@@ -3482,8 +4136,14 @@
       <c r="V35" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X35" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="7:24" x14ac:dyDescent="0.25">
       <c r="M36" s="10" t="s">
         <v>76</v>
       </c>
@@ -3508,8 +4168,14 @@
       <c r="V36" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X36" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L37" s="10"/>
       <c r="M37" s="10" t="s">
         <v>80</v>
@@ -3535,8 +4201,14 @@
       <c r="V37" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X37" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L38" s="10"/>
       <c r="M38" s="10" t="s">
         <v>77</v>
@@ -3562,8 +4234,14 @@
       <c r="V38" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X38" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L39" s="10"/>
       <c r="M39" s="10" t="s">
         <v>78</v>
@@ -3589,8 +4267,14 @@
       <c r="V39" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X39" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L40" s="10"/>
       <c r="O40" s="10" t="s">
         <v>73</v>
@@ -3604,8 +4288,14 @@
       <c r="V40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X40" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L41" s="10"/>
       <c r="O41" s="10" t="s">
         <v>74</v>
@@ -3619,8 +4309,14 @@
       <c r="V41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X41" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L42" s="10"/>
       <c r="O42" s="10" t="s">
         <v>31</v>
@@ -3634,8 +4330,14 @@
       <c r="V42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X42" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L43" s="10"/>
       <c r="O43" s="10" t="s">
         <v>29</v>
@@ -3649,8 +4351,14 @@
       <c r="V43">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X43" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L44" s="10"/>
       <c r="O44" s="10" t="s">
         <v>71</v>
@@ -3664,8 +4372,14 @@
       <c r="V44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X44" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="7:24" x14ac:dyDescent="0.25">
       <c r="L45" s="10"/>
       <c r="U45" s="7" t="s">
         <v>66</v>
@@ -3673,44 +4387,512 @@
       <c r="V45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="X45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="7:24" x14ac:dyDescent="0.25">
       <c r="U46" s="7" t="s">
         <v>67</v>
       </c>
       <c r="V46">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X46" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="7:24" x14ac:dyDescent="0.25">
       <c r="U47" s="7" t="s">
         <v>68</v>
       </c>
       <c r="V47">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="X47" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="7:24" x14ac:dyDescent="0.25">
       <c r="U48" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V48">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U49" s="7" t="s">
         <v>47</v>
       </c>
       <c r="V49">
         <v>5</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="X49" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X50" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W51" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X51" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="X52" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W53" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X53" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X54" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W55" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X55" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W56" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X56" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="X57" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W58" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X58" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X59" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W60" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X60" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W61" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X61" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W62" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X62" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W63" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="X63" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W64" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="X64" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W65" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X65" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W66" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="X66" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W67" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X67" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X68" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W69" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X69" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X70" s="13">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X71" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W72" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X72" s="13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W73" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X73" s="13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X74" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W75" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X75" s="13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X76" s="13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W77" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X77" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W78" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X78" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X79" s="13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W80" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X80" s="13">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="81" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W81" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X81" s="13">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="82" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W82" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="X82" s="13">
+        <v>934</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="S24:S33">
     <sortCondition ref="S24"/>
   </sortState>
-  <mergeCells count="180">
+  <mergeCells count="198">
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
@@ -3735,162 +4917,6 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3902,7 +4928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" workbookViewId="0">
+    <sheetView topLeftCell="L4" workbookViewId="0">
       <selection activeCell="O16" sqref="O16:P16"/>
     </sheetView>
   </sheetViews>
@@ -3958,327 +4984,327 @@
       <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="16" t="str">
         <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
         <v>JS Only Average Size = 1410</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="str">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="str">
         <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
         <v>JS Only Average Size = 183</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="str">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="str">
         <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
         <v>JS Only Average Size = 177.8</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="str">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="str">
         <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
         <v>JS Only Average Size = 34</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="str">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
         <v>JS Only Average Size = 34.375</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="str">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
         <v>JS Only Average Size = 31.6</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="str">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
         <v>JS Only Average Size = 31.1</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13" t="str">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
         <v>CSS Only Average Size = 24.5</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13" t="str">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
         <v>CSS Only Average Size = 17.5</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13" t="str">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
         <v>CSS Only Average Size = 16.6</v>
       </c>
-      <c r="V5" s="13"/>
+      <c r="V5" s="16"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>101</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17">
         <v>106</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>104</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
         <v>110</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>110</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17">
         <v>107</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>100</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17">
         <v>112</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>100</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18">
         <v>100</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -4288,56 +5314,56 @@
         <f>AVERAGE(B6:B15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="24" t="e">
+      <c r="C16" s="22" t="e">
         <f>AVERAGE(C6:C15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="e">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="e">
         <f>AVERAGE(E6:E15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24" t="e">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="e">
         <f>AVERAGE(G6:G15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="13" t="e">
+      <c r="H16" s="22"/>
+      <c r="I16" s="16" t="e">
         <f>AVERAGE(I6:I15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13" t="e">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="e">
         <f>AVERAGE(K6:K15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13" t="e">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16" t="e">
         <f>AVERAGE(M6:M15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13">
+      <c r="N16" s="16"/>
+      <c r="O16" s="16">
         <f>AVERAGE(O6:O15)</f>
         <v>105</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13" t="e">
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16" t="e">
         <f>AVERAGE(Q6:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="24" t="e">
+      <c r="R16" s="16"/>
+      <c r="S16" s="22" t="e">
         <f>AVERAGE(S6:S15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="13" t="e">
+      <c r="T16" s="22"/>
+      <c r="U16" s="16" t="e">
         <f>AVERAGE(U6:U15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V16" s="13"/>
+      <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -4347,323 +5373,323 @@
         <f>STDEV(B6:B15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C17" s="18" t="e">
+      <c r="C17" s="19" t="e">
         <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="e">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="e">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="e">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18" t="e">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19" t="e">
         <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18" t="e">
-        <f t="shared" ref="M17:N17" si="6">STDEV(M6:M15)</f>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19" t="e">
+        <f t="shared" ref="M17" si="6">STDEV(M6:M15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18">
-        <f t="shared" ref="O17:P17" si="7">STDEV(O6:O15)</f>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19">
+        <f t="shared" ref="O17" si="7">STDEV(O6:O15)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18" t="e">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18" t="e">
+      <c r="R17" s="19"/>
+      <c r="S17" s="19" t="e">
         <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18" t="e">
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="e">
         <f t="shared" ref="U17" si="9">STDEV(U6:U15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V17" s="18"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="16">
         <f>AVERAGE(D25:D27)</f>
         <v>1410</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
         <f>AVERAGE(F25:F34)</f>
         <v>183</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
         <f>AVERAGE(H25:H34)</f>
         <v>177.8</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
         <f>AVERAGE(J25:J29)</f>
         <v>34</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16">
         <f>AVERAGE(L25:L32)</f>
         <v>34.375</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="18">
+      <c r="L18" s="16"/>
+      <c r="M18" s="19">
         <f>AVERAGE(N25:N39)</f>
         <v>31.6</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
         <f>AVERAGE(P25:P41)</f>
         <v>31.058823529411764</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="13">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="16">
         <f>AVERAGE(R25:R34)</f>
         <v>24.5</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="18">
+      <c r="R18" s="16"/>
+      <c r="S18" s="19">
         <f>AVERAGE(T25:T39)</f>
         <v>17.466666666666665</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="13">
+      <c r="T18" s="19"/>
+      <c r="U18" s="16">
         <f>AVERAGE(V25:V49)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="V18" s="13"/>
+      <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="16">
         <f>SUM(D25:D44)</f>
         <v>4230</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16">
         <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
         <v>915</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
         <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
         <v>1778</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16">
         <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
         <v>170</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16">
         <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
         <v>348</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16">
         <f>SUM(N25:N39)</f>
         <v>474</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13">
+      <c r="N19" s="16"/>
+      <c r="O19" s="16">
         <f>SUM(P25:P41)</f>
         <v>528</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13">
-        <f t="shared" ref="Q19:R19" si="14">SUM(R25:R44)</f>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16">
+        <f t="shared" ref="Q19" si="14">SUM(R25:R44)</f>
         <v>245</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13">
+      <c r="R19" s="16"/>
+      <c r="S19" s="16">
         <f>SUM(T25:T44)</f>
         <v>262</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13">
+      <c r="T19" s="16"/>
+      <c r="U19" s="16">
         <f>SUM(V25:V49)</f>
         <v>415</v>
       </c>
-      <c r="V19" s="13"/>
+      <c r="V19" s="16"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="16">
         <v>3</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <v>10</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
         <v>5</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
         <v>10</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16">
         <f>COUNTA(M25:M39)</f>
         <v>15</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16">
         <f>COUNTA(O25:O44)</f>
         <v>20</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13">
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16">
         <v>10</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13">
+      <c r="R20" s="16"/>
+      <c r="S20" s="16">
         <v>15</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13">
+      <c r="T20" s="16"/>
+      <c r="U20" s="16">
         <v>25</v>
       </c>
-      <c r="V20" s="13"/>
+      <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="e">
+      <c r="C21" s="20" t="e">
         <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="e">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="e">
         <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="e">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="e">
         <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14" t="e">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="e">
         <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14" t="e">
+      <c r="J21" s="20"/>
+      <c r="K21" s="20" t="e">
         <f>K16/SUM(L25:L32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14" t="e">
+      <c r="L21" s="20"/>
+      <c r="M21" s="20" t="e">
         <f>M16/SUM(N25:N39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14">
+      <c r="N21" s="20"/>
+      <c r="O21" s="20">
         <f>O16/SUM(P25:P44)</f>
         <v>0.16178736517719569</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14" t="e">
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20" t="e">
         <f>Q16/SUM(R25:R34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14" t="e">
+      <c r="R21" s="20"/>
+      <c r="S21" s="20" t="e">
         <f>S16/SUM(T25:T39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14" t="e">
+      <c r="T21" s="20"/>
+      <c r="U21" s="20" t="e">
         <f>U16/SUM(V25:V49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V21" s="14"/>
+      <c r="V21" s="20"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="15" t="e">
+      <c r="C22" s="21" t="e">
         <f t="shared" ref="C22" si="19">C17/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="e">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="e">
         <f t="shared" ref="E22" si="20">E17/E16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15" t="e">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="e">
         <f t="shared" ref="G22" si="21">G17/G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15" t="e">
+      <c r="H22" s="21"/>
+      <c r="I22" s="21" t="e">
         <f t="shared" ref="I22" si="22">I17/I16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15" t="e">
+      <c r="J22" s="21"/>
+      <c r="K22" s="21" t="e">
         <f>K17/K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15" t="e">
+      <c r="L22" s="21"/>
+      <c r="M22" s="21" t="e">
         <f>M17/M16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15">
+      <c r="N22" s="21"/>
+      <c r="O22" s="21">
         <f>O17/O16</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15" t="e">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21" t="e">
         <f>Q17/Q16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15" t="e">
+      <c r="R22" s="21"/>
+      <c r="S22" s="21" t="e">
         <f>S17/S16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15" t="e">
+      <c r="T22" s="21"/>
+      <c r="U22" s="21" t="e">
         <f>U17/U16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V22" s="15"/>
+      <c r="V22" s="21"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
@@ -5475,170 +6501,6 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
@@ -5655,6 +6517,2675 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="11" max="11" width="31.140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="13"/>
+    <col min="21" max="21" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="13"/>
+    <col min="23" max="23" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2">
+        <f>AVERAGE(C21:L21)</f>
+        <v>0.33535811847318958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="8">
+        <f>AVERAGE(C22:L22)</f>
+        <v>4.6603624172850168E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
+        <v>JS Only Average Size = 1410</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="str">
+        <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
+        <v>JS Only Average Size = 183</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="str">
+        <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
+        <v>JS Only Average Size = 177.8</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="str">
+        <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
+        <v>JS Only Average Size = 34</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="str">
+        <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
+        <v>JS Only Average Size = 34.375</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="str">
+        <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
+        <v>JS Only Average Size = 31.6</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="str">
+        <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
+        <v>JS Only Average Size = 31.1</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="str">
+        <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
+        <v>CSS Only Average Size = 24.5</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16" t="str">
+        <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
+        <v>CSS Only Average Size = 17.5</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16" t="str">
+        <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
+        <v>CSS Only Average Size = 16.6</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16" t="str">
+        <f xml:space="preserve"> "Mix Average Size = " &amp; ROUND(W18, 1)</f>
+        <v>Mix Average Size = 121.9</v>
+      </c>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1144</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16">
+        <v>233</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>355</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="28">
+        <v>90.4</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="26">
+        <v>123</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="17">
+        <v>161</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
+        <v>185</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="T6" s="24"/>
+      <c r="U6" s="17">
+        <v>1.63</v>
+      </c>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17">
+        <v>1144</v>
+      </c>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1077</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16">
+        <v>246</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>344</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="28">
+        <v>96.4</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="26">
+        <v>115</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="17">
+        <v>159</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17">
+        <v>198</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="24">
+        <v>1.01</v>
+      </c>
+      <c r="T7" s="24"/>
+      <c r="U7" s="17">
+        <v>1.65</v>
+      </c>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17">
+        <v>1077</v>
+      </c>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1024</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16">
+        <v>235</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
+        <v>370</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="28">
+        <v>95</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="26">
+        <v>124</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="17">
+        <v>147</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>186</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="24">
+        <v>1.03</v>
+      </c>
+      <c r="T8" s="24"/>
+      <c r="U8" s="17">
+        <v>1.33</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17">
+        <v>1024</v>
+      </c>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="C9" s="17">
+        <v>961</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>236</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
+        <v>355</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="28">
+        <v>89.7</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="26">
+        <v>115</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="17">
+        <v>149</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
+        <v>177</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="24">
+        <v>1.07</v>
+      </c>
+      <c r="T9" s="24"/>
+      <c r="U9" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17">
+        <v>961</v>
+      </c>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>248</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>347</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="28">
+        <v>86.7</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="26">
+        <v>117</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="17">
+        <v>161</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
+        <v>189</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="T10" s="24"/>
+      <c r="U10" s="17">
+        <v>1.33</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17">
+        <v>1001</v>
+      </c>
+      <c r="X10" s="17"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="C11" s="17">
+        <v>942</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>252</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
+        <v>344</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="28">
+        <v>87.5</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="26">
+        <v>118</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="17">
+        <v>147</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17">
+        <v>182</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17">
+        <v>942</v>
+      </c>
+      <c r="X11" s="17"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="C12" s="17">
+        <v>966</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <v>256</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
+        <v>341</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="28">
+        <v>100.5</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="26">
+        <v>114</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="17">
+        <v>142</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
+        <v>180</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="U12" s="17">
+        <v>1.35</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17">
+        <v>966</v>
+      </c>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="C13" s="17">
+        <v>961</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>255</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>350</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="28">
+        <v>88.2</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26">
+        <v>113</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="17">
+        <v>149</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17">
+        <v>187</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="24">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17">
+        <v>961</v>
+      </c>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1155</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
+        <v>267</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>341</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="28">
+        <v>91.1</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26">
+        <v>119</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="17">
+        <v>161</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
+        <v>190</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="T14" s="24"/>
+      <c r="U14" s="17">
+        <v>1.45</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17">
+        <v>1155</v>
+      </c>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1071</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25">
+        <v>265</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25">
+        <v>345</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="27">
+        <v>91.3</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27">
+        <v>111</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="18">
+        <v>151</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18">
+        <v>181</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="T15" s="23"/>
+      <c r="U15" s="25">
+        <v>1.43</v>
+      </c>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25">
+        <v>1071</v>
+      </c>
+      <c r="X15" s="25"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13">
+        <f>AVERAGE(B6:B15)</f>
+        <v>0.40099999999999997</v>
+      </c>
+      <c r="C16" s="22">
+        <f>AVERAGE(C6:C15)</f>
+        <v>1030.2</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22">
+        <f>AVERAGE(E6:E15)</f>
+        <v>249.3</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22">
+        <f>AVERAGE(G6:G15)</f>
+        <v>349.2</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="16">
+        <f>AVERAGE(I6:I15)</f>
+        <v>91.68</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16">
+        <f>AVERAGE(K6:K15)</f>
+        <v>116.9</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16">
+        <f>AVERAGE(M6:M15)</f>
+        <v>152.69999999999999</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16">
+        <f>AVERAGE(O6:O15)</f>
+        <v>185.5</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="R16" s="16"/>
+      <c r="S16" s="22">
+        <f>AVERAGE(S6:S15)</f>
+        <v>0.97300000000000009</v>
+      </c>
+      <c r="T16" s="22"/>
+      <c r="U16" s="16">
+        <f>AVERAGE(U6:U15)</f>
+        <v>1.4109999999999998</v>
+      </c>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16">
+        <f>AVERAGE(W6:W15)</f>
+        <v>1030.2</v>
+      </c>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="15">
+        <f>STDEV(B6:B15)</f>
+        <v>2.766867462592951E-2</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
+        <v>77.995441462234766</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
+        <f t="shared" si="4"/>
+        <v>12.037441588643327</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <f t="shared" si="4"/>
+        <v>8.8919439194512826</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
+        <f t="shared" si="4"/>
+        <v>4.3654705741000406</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19">
+        <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
+        <v>4.2018514437751797</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19">
+        <f t="shared" ref="M17" si="6">STDEV(M6:M15)</f>
+        <v>7.1188326134119615</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19">
+        <f t="shared" ref="O17" si="7">STDEV(O6:O15)</f>
+        <v>6.0231036665308837</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19">
+        <f t="shared" si="5"/>
+        <v>7.1460945044595284E-2</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19">
+        <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
+        <v>0.11005554153345475</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19">
+        <f t="shared" ref="U17:W17" si="9">STDEV(U6:U15)</f>
+        <v>0.13025189271390852</v>
+      </c>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19">
+        <f t="shared" si="9"/>
+        <v>77.995441462234766</v>
+      </c>
+      <c r="X17" s="19"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="16">
+        <f>AVERAGE(D25:D27)</f>
+        <v>1410</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
+        <f>AVERAGE(F25:F34)</f>
+        <v>183</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
+        <f>AVERAGE(H25:H34)</f>
+        <v>177.8</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
+        <f>AVERAGE(J25:J29)</f>
+        <v>34</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16">
+        <f>AVERAGE(L25:L32)</f>
+        <v>34.375</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="19">
+        <f>AVERAGE(N25:N39)</f>
+        <v>31.6</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
+        <f>AVERAGE(P25:P41)</f>
+        <v>31.058823529411764</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="16">
+        <f>AVERAGE(R25:R34)</f>
+        <v>24.5</v>
+      </c>
+      <c r="R18" s="16"/>
+      <c r="S18" s="28">
+        <f>AVERAGE(T25:T39)</f>
+        <v>17.466666666666665</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="16">
+        <f>AVERAGE(V25:V49)</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="V18" s="16"/>
+      <c r="W18" s="28">
+        <f>AVERAGE(X25:X82)</f>
+        <v>121.93103448275862</v>
+      </c>
+      <c r="X18" s="28"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="16">
+        <f>SUM(D25:D44)</f>
+        <v>4230</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16">
+        <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
+        <v>915</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
+        <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
+        <v>1778</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16">
+        <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
+        <v>170</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16">
+        <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
+        <v>348</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16">
+        <f>SUM(N25:N39)</f>
+        <v>474</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16">
+        <f>SUM(P25:P41)</f>
+        <v>528</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16">
+        <f t="shared" ref="Q19" si="14">SUM(R25:R44)</f>
+        <v>245</v>
+      </c>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16">
+        <f>SUM(T25:T44)</f>
+        <v>262</v>
+      </c>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16">
+        <f>SUM(V25:V49)</f>
+        <v>415</v>
+      </c>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16">
+        <f>SUM(X25:X82)</f>
+        <v>7072</v>
+      </c>
+      <c r="X19" s="16"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
+        <v>5</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
+        <v>10</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
+        <v>5</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
+        <v>10</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16">
+        <f>COUNTA(M25:M39)</f>
+        <v>15</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16">
+        <f>COUNTA(O25:O44)</f>
+        <v>20</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16">
+        <v>10</v>
+      </c>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16">
+        <v>15</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16">
+        <v>25</v>
+      </c>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16">
+        <f>COUNT(X25:X82)</f>
+        <v>58</v>
+      </c>
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
+        <v>0.24354609929078017</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
+        <v>0.27245901639344261</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
+        <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
+        <v>0.19640044994375702</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20">
+        <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
+        <v>0.53929411764705881</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
+        <f>K16/SUM(L25:L32)</f>
+        <v>0.42509090909090913</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20">
+        <f>M16/SUM(N25:N39)</f>
+        <v>0.32215189873417721</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20">
+        <f>O16/SUM(P25:P44)</f>
+        <v>0.28582434514637906</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20">
+        <f>Q16/SUM(R25:R34)</f>
+        <v>3.4775510204081632E-3</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20">
+        <f>S16/SUM(T25:T39)</f>
+        <v>3.7137404580152673E-3</v>
+      </c>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20">
+        <f>U16/SUM(V25:V49)</f>
+        <v>3.3999999999999994E-3</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20">
+        <f>W16/SUM(X25:X82)</f>
+        <v>0.14567307692307693</v>
+      </c>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" ref="C22:E22" si="19">C17/C16</f>
+        <v>7.5709028792695365E-2</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21">
+        <f t="shared" ref="E22" si="20">E17/E16</f>
+        <v>4.828496425448587E-2</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21">
+        <f t="shared" ref="G22" si="21">G17/G16</f>
+        <v>2.5463756928554647E-2</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21">
+        <f t="shared" ref="I22" si="22">I17/I16</f>
+        <v>4.7616389333551924E-2</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21">
+        <f>K17/K16</f>
+        <v>3.5943981554963041E-2</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21">
+        <f>M17/M16</f>
+        <v>4.6619728967989271E-2</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21">
+        <f>O17/O16</f>
+        <v>3.2469561544640882E-2</v>
+      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21">
+        <f>Q17/Q16</f>
+        <v>8.3874348643891178E-2</v>
+      </c>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21">
+        <f>S17/S16</f>
+        <v>0.11310949797888462</v>
+      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21">
+        <f>U17/U16</f>
+        <v>9.2311759542103855E-2</v>
+      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21">
+        <f>W17/W16</f>
+        <v>7.5709028792695365E-2</v>
+      </c>
+      <c r="X22" s="21"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2280</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="13">
+        <v>248</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="13">
+        <v>248</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="13">
+        <v>37</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="13">
+        <v>37</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="13">
+        <v>37</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="13">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="13">
+        <v>23</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" s="13">
+        <v>17</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="13">
+        <v>17</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="X25" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1016</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="13">
+        <v>182</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="9">
+        <v>163</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="13">
+        <v>81</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="13">
+        <v>81</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="13">
+        <v>81</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="13">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="13">
+        <v>21</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="13">
+        <v>6</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="13">
+        <v>6</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="13">
+        <v>934</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="13">
+        <v>118</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="13">
+        <v>204</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="13">
+        <v>17</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="13">
+        <v>17</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="13">
+        <v>17</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="13">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="13">
+        <v>32</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T27" s="13">
+        <v>4</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V27" s="13">
+        <v>4</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="13">
+        <v>204</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="13">
+        <v>209</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="13">
+        <v>17</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="13">
+        <v>17</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="13">
+        <v>17</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="13">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" s="13">
+        <v>5</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" s="13">
+        <v>37</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V28" s="13">
+        <v>37</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X28" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9">
+        <v>163</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="13">
+        <v>119</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="13">
+        <v>18</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="13">
+        <v>18</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="13">
+        <v>18</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="13">
+        <v>6</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="13">
+        <v>21</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" s="13">
+        <v>21</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X29" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="13">
+        <v>182</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="13">
+        <v>23</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="13">
+        <v>23</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="13">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="13">
+        <v>37</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="13">
+        <v>52</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" s="13">
+        <v>52</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X30" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="13">
+        <v>187</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="13">
+        <v>40</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="13">
+        <v>40</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="13">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="13">
+        <v>17</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="13">
+        <v>31</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="13">
+        <v>31</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="13">
+        <v>118</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="13">
+        <v>42</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="13">
+        <v>42</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="13">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="13">
+        <v>21</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="13">
+        <v>23</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="13">
+        <v>23</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="13">
+        <v>170</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="13">
+        <v>49</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="13">
+        <v>49</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" s="13">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="13">
+        <v>52</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" s="13">
+        <v>3</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33" s="13">
+        <v>3</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X33" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="13">
+        <v>178</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="13">
+        <v>24</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="13">
+        <v>24</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="13">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="13">
+        <v>31</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="13">
+        <v>21</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="13">
+        <v>21</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="M35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="13">
+        <v>14</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="13">
+        <v>14</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T35" s="13">
+        <v>3</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V35" s="13">
+        <v>3</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X35" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="M36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" s="13">
+        <v>30</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" s="13">
+        <v>30</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="13">
+        <v>18</v>
+      </c>
+      <c r="U36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" s="13">
+        <v>18</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X36" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="M37" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" s="13">
+        <v>25</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" s="13">
+        <v>25</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" s="13">
+        <v>13</v>
+      </c>
+      <c r="U37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" s="13">
+        <v>13</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X37" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="M38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="13">
+        <v>24</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="13">
+        <v>24</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T38" s="13">
+        <v>8</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" s="13">
+        <v>8</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X38" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="M39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" s="13">
+        <v>33</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" s="13">
+        <v>33</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="13">
+        <v>5</v>
+      </c>
+      <c r="U39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="13">
+        <v>5</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X39" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="O40" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="13">
+        <v>27</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V40" s="13">
+        <v>23</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X40" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="O41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="13">
+        <v>27</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41" s="13">
+        <v>9</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X41" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="O42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="13">
+        <v>32</v>
+      </c>
+      <c r="U42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V42" s="13">
+        <v>10</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X42" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="O43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="13">
+        <v>76</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V43" s="13">
+        <v>25</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X43" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="O44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" s="13">
+        <v>13</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="V44" s="13">
+        <v>4</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X44" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="U45" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V45" s="13">
+        <v>11</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="X45" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="U46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V46" s="13">
+        <v>12</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X46" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="U47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V47" s="13">
+        <v>22</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="X47" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="U48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" s="13">
+        <v>32</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="V49" s="13">
+        <v>5</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="X49" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X50" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W51" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X51" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="X52" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W53" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X53" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X54" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W55" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X55" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W56" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X56" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="X57" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W58" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X58" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X59" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W60" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X60" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W61" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X61" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W62" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X62" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W63" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="X63" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="W64" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="X64" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W65" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X65" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W66" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="X66" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W67" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X67" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X68" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W69" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X69" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X70" s="13">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X71" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W72" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X72" s="13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W73" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X73" s="13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X74" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W75" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X75" s="13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X76" s="13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W77" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X77" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W78" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X78" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X79" s="13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W80" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X80" s="13">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="81" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W81" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X81" s="13">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="82" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W82" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="X82" s="13">
+        <v>934</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="198">
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Load Times.xlsx
+++ b/Load Times.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="22995" windowHeight="11835"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="22995" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WebSocket" sheetId="1" r:id="rId1"/>
-    <sheet name="Normal" sheetId="4" r:id="rId2"/>
-    <sheet name="WebSocket (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Normal" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="84">
   <si>
     <t>Overhead Test</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Total KB</t>
+  </si>
+  <si>
+    <t>Percentage Worse</t>
+  </si>
+  <si>
+    <t>worse because since it's a single socket connection, files can be requested in parallel but only sent back in sequence</t>
   </si>
 </sst>
 </file>
@@ -352,24 +358,24 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +488,7 @@
                   <c:v>0.48775956284153005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.35168728908886387</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.3652941176470588</c:v>
@@ -491,10 +497,10 @@
                   <c:v>1.0141818181818181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.62531645569620253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.3329738058551619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,11 +515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133957504"/>
-        <c:axId val="185917440"/>
+        <c:axId val="200234496"/>
+        <c:axId val="200236032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133957504"/>
+        <c:axId val="200234496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,12 +529,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185917440"/>
+        <c:crossAx val="200236032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185917440"/>
+        <c:axId val="200236032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133957504"/>
+        <c:crossAx val="200234496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -658,7 +664,7 @@
                   <c:v>0.48775956284153005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.35168728908886387</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.3652941176470588</c:v>
@@ -667,10 +673,10 @@
                   <c:v>1.0141818181818181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.62531645569620253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.3329738058551619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,11 +691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130645376"/>
-        <c:axId val="130651264"/>
+        <c:axId val="200256512"/>
+        <c:axId val="200258304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130645376"/>
+        <c:axId val="200256512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,12 +705,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130651264"/>
+        <c:crossAx val="200258304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130651264"/>
+        <c:axId val="200258304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130645376"/>
+        <c:crossAx val="200256512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -771,6 +777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -833,7 +840,7 @@
                   <c:v>0.48775956284153005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.35168728908886387</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.3652941176470588</c:v>
@@ -842,10 +849,10 @@
                   <c:v>1.0141818181818181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.62531645569620253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.3329738058551619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,11 +867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130663552"/>
-        <c:axId val="130665088"/>
+        <c:axId val="200352512"/>
+        <c:axId val="200354048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130663552"/>
+        <c:axId val="200352512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,12 +881,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130665088"/>
+        <c:crossAx val="200354048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130665088"/>
+        <c:axId val="200354048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,13 +897,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130663552"/>
+        <c:crossAx val="200352512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -912,528 +920,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Number of Files vs. </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Time per KB</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Series 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Normal!$C$20:$P$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Normal!$C$21:$P$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16178736517719569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="130151168"/>
-        <c:axId val="130152704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="130151168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130152704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="130152704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130151168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Data vs.Time per KB</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Series 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Normal!$C$19:$P$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4230</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1778</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Normal!$C$21:$P$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16178736517719569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="130701952"/>
-        <c:axId val="130716032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="130701952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130716032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="130716032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130701952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average File Size vs.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time per KB</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Series 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Normal!$C$18:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.375</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>31.6</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>31.058823529411764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Normal!$C$21:$P$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16178736517719569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="130732416"/>
-        <c:axId val="130733952"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="130732416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130733952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="130733952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130732416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1489,7 +975,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'WebSocket (2)'!$C$20:$P$20</c:f>
+              <c:f>Normal!$C$20:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1519,7 +1005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'WebSocket (2)'!$C$21:$P$21</c:f>
+              <c:f>Normal!$C$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1557,11 +1043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126250368"/>
-        <c:axId val="126260352"/>
+        <c:axId val="200407680"/>
+        <c:axId val="179962240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126250368"/>
+        <c:axId val="200407680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,12 +1057,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126260352"/>
+        <c:crossAx val="179962240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126260352"/>
+        <c:axId val="179962240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1073,643 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126250368"/>
+        <c:crossAx val="200407680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data vs.Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Normal!$C$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.24354609929078017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27245901639344261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19640044994375702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53929411764705881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42509090909090913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32215189873417721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28582434514637906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179992448"/>
+        <c:axId val="179993984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179992448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179993984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179993984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179992448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average File Size vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time per KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Normal!$C$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>31.058823529411764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.24354609929078017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27245901639344261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19640044994375702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53929411764705881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42509090909090913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32215189873417721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28582434514637906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="180023296"/>
+        <c:axId val="180024832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="180023296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180024832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="180024832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180023296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WebSocket</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>WebSocket!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Overhead Test</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JS Only Average Size = 1410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JS Only Average Size = 183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JS Only Average Size = 177.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JS Only Average Size = 34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JS Only Average Size = 34.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JS Only Average Size = 31.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>JS Only Average Size = 31.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CSS Only Average Size = 24.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CSS Only Average Size = 17.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CSS Only Average Size = 16.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Mix Average Size = 121.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WebSocket!$B$16:$X$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.4629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1507.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>446.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>625.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>278.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>296.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>865.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1441.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Normal HTTP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Normal!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Overhead Test</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JS Only Average Size = 1410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JS Only Average Size = 183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JS Only Average Size = 177.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JS Only Average Size = 34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JS Only Average Size = 34.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JS Only Average Size = 31.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>JS Only Average Size = 31.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CSS Only Average Size = 24.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CSS Only Average Size = 17.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CSS Only Average Size = 16.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Mix Average Size = 121.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Normal!$B$16:$X$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.40099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1030.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97300000000000009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1030.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="140592640"/>
+        <c:axId val="140591104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="140592640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140591104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140591104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140592640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,25 +1746,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Data vs.Time per KB</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1652,10 +1756,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Series 2</c:v>
+            <c:v>Percent Worse</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1663,61 +1767,90 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:numRef>
-              <c:f>'WebSocket (2)'!$C$19:$P$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+            <c:strRef>
+              <c:f>WebSocket!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>4230</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1778</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Overhead Test</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JS Only Average Size = 1410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JS Only Average Size = 183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JS Only Average Size = 177.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JS Only Average Size = 34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JS Only Average Size = 34.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JS Only Average Size = 31.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>JS Only Average Size = 31.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CSS Only Average Size = 24.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CSS Only Average Size = 17.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CSS Only Average Size = 16.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Mix Average Size = 121.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'WebSocket (2)'!$C$21:$P$21</c:f>
+              <c:f>Sheet1!$B$4:$V$4</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.24354609929078017</c:v>
+                  <c:v>2.6483790523690769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46301688992428652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27245901639344261</c:v>
+                  <c:v>0.79021259526674681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19640044994375702</c:v>
+                  <c:v>0.79066437571592207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53929411764705881</c:v>
+                  <c:v>1.5316317626527047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42509090909090913</c:v>
+                  <c:v>1.3857998289136011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32215189873417721</c:v>
+                  <c:v>0.94106090373280937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28582434514637906</c:v>
+                  <c:v>3.6636118598382752</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99882629107981236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2045220966084278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2572643515237423</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39914579693263447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,217 +1865,43 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126272640"/>
-        <c:axId val="126274176"/>
+        <c:axId val="44355968"/>
+        <c:axId val="44354176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126272640"/>
+        <c:axId val="44355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126274176"/>
+        <c:crossAx val="44354176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126274176"/>
+        <c:axId val="44354176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126272640"/>
+        <c:crossAx val="44355968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average File Size vs.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time per KB</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Series 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'WebSocket (2)'!$C$18:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.375</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>31.6</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>31.058823529411764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'WebSocket (2)'!$C$21:$P$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.24354609929078017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27245901639344261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19640044994375702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53929411764705881</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42509090909090913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32215189873417721</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.28582434514637906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="126339712"/>
-        <c:axId val="126398848"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="126339712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126398848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="126398848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126339712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2159,23 +2118,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2191,23 +2148,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2216,38 +2171,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2545,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:R9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,9 +2500,9 @@
       <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="e">
+      <c r="J2" s="2">
         <f>AVERAGE(C21:L21)</f>
-        <v>#DIV/0!</v>
+        <v>0.7150469688993718</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -2589,9 +2512,44 @@
       <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="8" t="e">
+      <c r="J3" s="8">
         <f>AVERAGE(C22:L22)</f>
-        <v>#DIV/0!</v>
+        <v>3.0343513861298271E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>6</v>
+      </c>
+      <c r="P4" s="10">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -2599,61 +2557,61 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="15" t="str">
         <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
         <v>JS Only Average Size = 1410</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="str">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="str">
         <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
         <v>JS Only Average Size = 183</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="str">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="str">
         <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
         <v>JS Only Average Size = 177.8</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="str">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="str">
         <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
         <v>JS Only Average Size = 34</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="str">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
         <v>JS Only Average Size = 34.375</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="str">
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
         <v>JS Only Average Size = 31.6</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16" t="str">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
         <v>JS Only Average Size = 31.1</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16" t="str">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
         <v>CSS Only Average Size = 24.5</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16" t="str">
+      <c r="R5" s="15"/>
+      <c r="S5" s="15" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
         <v>CSS Only Average Size = 17.5</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16" t="str">
+      <c r="T5" s="15"/>
+      <c r="U5" s="15" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
         <v>CSS Only Average Size = 16.6</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16" t="str">
+      <c r="V5" s="15"/>
+      <c r="W5" s="15" t="str">
         <f xml:space="preserve"> "Mix Average Size = " &amp; ROUND(W18, 1)</f>
         <v>Mix Average Size = 121.9</v>
       </c>
-      <c r="X5" s="16"/>
+      <c r="X5" s="15"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2662,38 +2620,50 @@
       <c r="B6">
         <v>1.42</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1560</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
         <v>456</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="28">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>624</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="21">
         <v>226</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="26">
+      <c r="J6" s="21"/>
+      <c r="K6" s="27">
         <v>285</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
-        <v>247</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="24"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="16">
+        <v>303</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
+        <v>854</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16">
+        <v>1.78</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="24">
+        <v>2.02</v>
+      </c>
       <c r="T6" s="24"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
+      <c r="U6" s="16">
+        <v>3.21</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16">
+        <v>1246</v>
+      </c>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2702,38 +2672,50 @@
       <c r="B7">
         <v>1.57</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>1504</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
         <v>463</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="28">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
+        <v>622</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="21">
         <v>230</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="26">
+      <c r="J7" s="21"/>
+      <c r="K7" s="27">
         <v>282</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17">
-        <v>246</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="24"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="16">
+        <v>309</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
+        <v>871</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="24">
+        <v>2.21</v>
+      </c>
       <c r="T7" s="24"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
+      <c r="U7" s="16">
+        <v>3.25</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16">
+        <v>1379</v>
+      </c>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2742,38 +2724,50 @@
       <c r="B8">
         <v>1.37</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>1492</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <v>430</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="28">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
+        <v>645</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="21">
         <v>244</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="26">
+      <c r="J8" s="21"/>
+      <c r="K8" s="27">
         <v>281</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
-        <v>233</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="24"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="16">
+        <v>292</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
+        <v>867</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="24">
+        <v>2.23</v>
+      </c>
       <c r="T8" s="24"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
+      <c r="U8" s="16">
+        <v>3.01</v>
+      </c>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16">
+        <v>1513</v>
+      </c>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2782,36 +2776,50 @@
       <c r="B9">
         <v>1.43</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>1579</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
         <v>435</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="28">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
+        <v>604</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="21">
         <v>227</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="26">
+      <c r="J9" s="21"/>
+      <c r="K9" s="27">
         <v>277</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="24"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="16">
+        <v>297</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
+        <v>869</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="24">
+        <v>2.29</v>
+      </c>
       <c r="T9" s="24"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="U9" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16">
+        <v>1496</v>
+      </c>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2820,36 +2828,50 @@
       <c r="B10">
         <v>1.45</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>1510</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
         <v>447</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="28">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>596</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="21">
         <v>234</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="26">
+      <c r="J10" s="21"/>
+      <c r="K10" s="27">
         <v>269</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="24"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="16">
+        <v>283</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
+        <v>859</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="R10" s="16"/>
+      <c r="S10" s="24">
+        <v>2.09</v>
+      </c>
       <c r="T10" s="24"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="U10" s="16">
+        <v>3.25</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16">
+        <v>1398</v>
+      </c>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2858,36 +2880,50 @@
       <c r="B11">
         <v>1.49</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>1462</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
         <v>457</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="28">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>648</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="21">
         <v>223</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="26">
+      <c r="J11" s="21"/>
+      <c r="K11" s="27">
         <v>289</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="24"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="16">
+        <v>300</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
+        <v>865</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
+        <v>1.67</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="24">
+        <v>2.0699999999999998</v>
+      </c>
       <c r="T11" s="24"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="U11" s="16">
+        <v>3.27</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16">
+        <v>1226</v>
+      </c>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2896,36 +2932,50 @@
       <c r="B12">
         <v>1.49</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>1475</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
         <v>461</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="28">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
+        <v>648</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21">
         <v>225</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="26">
+      <c r="J12" s="21"/>
+      <c r="K12" s="27">
         <v>292</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="24"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="16">
+        <v>289</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
+        <v>865</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16">
+        <v>1.63</v>
+      </c>
+      <c r="R12" s="16"/>
+      <c r="S12" s="24">
+        <v>2.15</v>
+      </c>
       <c r="T12" s="24"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+      <c r="U12" s="16">
+        <v>3.19</v>
+      </c>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16">
+        <v>1578</v>
+      </c>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2934,36 +2984,50 @@
       <c r="B13">
         <v>1.46</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>1479</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <v>419</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="28">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
+        <v>606</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="21">
         <v>232</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26">
+      <c r="J13" s="21"/>
+      <c r="K13" s="27">
         <v>278</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="24"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="16">
+        <v>302</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
+        <v>857</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="24">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="T13" s="24"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+      <c r="U13" s="16">
+        <v>3.21</v>
+      </c>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16">
+        <v>1543</v>
+      </c>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2972,36 +3036,50 @@
       <c r="B14">
         <v>1.52</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>1519</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
         <v>442</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="28">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <v>632</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="21">
         <v>238</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="26">
+      <c r="J14" s="21"/>
+      <c r="K14" s="27">
         <v>261</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="24"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="16">
+        <v>290</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16">
+        <v>857</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="R14" s="16"/>
+      <c r="S14" s="24">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="T14" s="24"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
+      <c r="U14" s="16">
+        <v>3.22</v>
+      </c>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16">
+        <v>1505</v>
+      </c>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -3018,27 +3096,41 @@
         <v>453</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="25">
+        <v>628</v>
+      </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>242</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27">
+      <c r="J15" s="26"/>
+      <c r="K15" s="26">
         <v>275</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="17">
+        <v>299</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17">
+        <v>887</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="25">
+        <v>1.75</v>
+      </c>
       <c r="R15" s="25"/>
-      <c r="S15" s="23"/>
+      <c r="S15" s="23">
+        <v>2.14</v>
+      </c>
       <c r="T15" s="23"/>
-      <c r="U15" s="25"/>
+      <c r="U15" s="25">
+        <v>3.09</v>
+      </c>
       <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
+      <c r="W15" s="25">
+        <v>1530</v>
+      </c>
       <c r="X15" s="25"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3059,51 +3151,51 @@
         <v>446.3</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="22" t="e">
+      <c r="G16" s="22">
         <f>AVERAGE(G6:G15)</f>
-        <v>#DIV/0!</v>
+        <v>625.29999999999995</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <f>AVERAGE(I6:I15)</f>
         <v>232.1</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15">
         <f>AVERAGE(K6:K15)</f>
         <v>278.89999999999998</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16" t="e">
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
         <f>AVERAGE(M6:M15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16" t="e">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15">
         <f>AVERAGE(O6:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16">
+        <v>865.1</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15">
         <f>AVERAGE(Q6:Q15)</f>
-        <v>242</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="22" t="e">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="22">
         <f>AVERAGE(S6:S15)</f>
-        <v>#DIV/0!</v>
+        <v>2.1450000000000005</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="16" t="e">
+      <c r="U16" s="15">
         <f>AVERAGE(U6:U15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16" t="e">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15">
         <f>AVERAGE(W6:W15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X16" s="16"/>
+        <v>1441.4</v>
+      </c>
+      <c r="X16" s="15"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -3113,357 +3205,357 @@
         <f>STDEV(B6:B15)</f>
         <v>5.6774407379851489E-2</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
         <v>37.174662816971932</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
         <f t="shared" si="4"/>
         <v>14.552968387545164</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="e">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19">
+        <v>18.761959149063063</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
         <f t="shared" si="4"/>
         <v>7.2945946502263652</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
         <v>9.206881484339128</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19" t="e">
+      <c r="L17" s="18"/>
+      <c r="M17" s="18">
         <f t="shared" ref="M17" si="6">STDEV(M6:M15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19" t="e">
+        <v>7.8059806131794431</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18">
         <f t="shared" ref="O17" si="7">STDEV(O6:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19">
+        <v>9.5736908011255277</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18">
         <f t="shared" si="5"/>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19" t="e">
+        <v>5.0343266128097496E-2</v>
+      </c>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18">
         <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19" t="e">
+        <v>9.1681816929833848E-2</v>
+      </c>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18">
         <f t="shared" ref="U17:W17" si="9">STDEV(U6:U15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19" t="e">
+        <v>8.1000685868152525E-2</v>
+      </c>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X17" s="19"/>
+        <v>124.42775681762758</v>
+      </c>
+      <c r="X17" s="18"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f>AVERAGE(D25:D27)</f>
         <v>1410</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <f>AVERAGE(F25:F34)</f>
         <v>183</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15">
         <f>AVERAGE(H25:H34)</f>
         <v>177.8</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
         <f>AVERAGE(J25:J29)</f>
         <v>34</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15">
         <f>AVERAGE(L25:L32)</f>
         <v>34.375</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="19">
+      <c r="L18" s="15"/>
+      <c r="M18" s="18">
         <f>AVERAGE(N25:N39)</f>
         <v>31.6</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18">
         <f>AVERAGE(P25:P41)</f>
         <v>31.058823529411764</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="16">
+      <c r="P18" s="18"/>
+      <c r="Q18" s="15">
         <f>AVERAGE(R25:R34)</f>
         <v>24.5</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="28">
+      <c r="R18" s="15"/>
+      <c r="S18" s="21">
         <f>AVERAGE(T25:T39)</f>
         <v>17.466666666666665</v>
       </c>
-      <c r="T18" s="28"/>
-      <c r="U18" s="16">
+      <c r="T18" s="21"/>
+      <c r="U18" s="15">
         <f>AVERAGE(V25:V49)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="28">
+      <c r="V18" s="15"/>
+      <c r="W18" s="21">
         <f>AVERAGE(X25:X82)</f>
         <v>121.93103448275862</v>
       </c>
-      <c r="X18" s="28"/>
+      <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <f>SUM(D25:D44)</f>
         <v>4230</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
         <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
         <v>915</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
         <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
         <v>1778</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
         <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
         <v>170</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
         <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
         <v>348</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16">
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
         <f>SUM(N25:N39)</f>
         <v>474</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15">
         <f>SUM(P25:P41)</f>
         <v>528</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15">
         <f t="shared" ref="Q19" si="14">SUM(R25:R44)</f>
         <v>245</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16">
+      <c r="R19" s="15"/>
+      <c r="S19" s="15">
         <f>SUM(T25:T44)</f>
         <v>262</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16">
+      <c r="T19" s="15"/>
+      <c r="U19" s="15">
         <f>SUM(V25:V49)</f>
         <v>415</v>
       </c>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16">
+      <c r="V19" s="15"/>
+      <c r="W19" s="15">
         <f>SUM(X25:X82)</f>
         <v>7072</v>
       </c>
-      <c r="X19" s="16"/>
+      <c r="X19" s="15"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>3</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
         <v>5</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15">
         <v>10</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
         <v>5</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
         <v>10</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
         <f>COUNTA(M25:M39)</f>
         <v>15</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15">
         <f>COUNTA(O25:O44)</f>
         <v>20</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15">
         <v>10</v>
       </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16">
+      <c r="R20" s="15"/>
+      <c r="S20" s="15">
         <v>15</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16">
+      <c r="T20" s="15"/>
+      <c r="U20" s="15">
         <v>25</v>
       </c>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16">
+      <c r="V20" s="15"/>
+      <c r="W20" s="15">
         <f>COUNT(X25:X82)</f>
         <v>58</v>
       </c>
-      <c r="X20" s="16"/>
+      <c r="X20" s="15"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
         <v>0.35631205673758864</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
         <v>0.48775956284153005</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20" t="e">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20">
+        <v>0.35168728908886387</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19">
         <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
         <v>1.3652941176470588</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19">
         <f>K16/SUM(L25:L32)</f>
         <v>1.0141818181818181</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20" t="e">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19">
         <f>M16/SUM(N25:N39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20" t="e">
+        <v>0.62531645569620253</v>
+      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19">
         <f>O16/SUM(P25:P44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20">
+        <v>1.3329738058551619</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19">
         <f>Q16/SUM(R25:R34)</f>
-        <v>0.98775510204081629</v>
-      </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20" t="e">
+        <v>6.9510204081632658E-3</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19">
         <f>S16/SUM(T25:T39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20" t="e">
+        <v>8.1870229007633601E-3</v>
+      </c>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19">
         <f>U16/SUM(V25:V49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20" t="e">
+        <v>7.6746987951807231E-3</v>
+      </c>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19">
         <f>W16/SUM(X25:X82)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="20"/>
+        <v>0.20381787330316745</v>
+      </c>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="21">
-        <f t="shared" ref="A22:C22" si="19">C17/C16</f>
+      <c r="C22" s="20">
+        <f t="shared" ref="C22" si="19">C17/C16</f>
         <v>2.4664717898734031E-2</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
         <f t="shared" ref="E22" si="20">E17/E16</f>
         <v>3.2608040303708632E-2</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21" t="e">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
         <f t="shared" ref="G22" si="21">G17/G16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21">
+        <v>3.000473236696476E-2</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20">
         <f t="shared" ref="I22" si="22">I17/I16</f>
         <v>3.1428671478786578E-2</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21">
+      <c r="J22" s="20"/>
+      <c r="K22" s="20">
         <f>K17/K16</f>
         <v>3.3011407258297341E-2</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21" t="e">
+      <c r="L22" s="20"/>
+      <c r="M22" s="20">
         <f>M17/M16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21" t="e">
+        <v>2.6335966981037261E-2</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20">
         <f>O17/O16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21">
+        <v>1.1066571264738791E-2</v>
+      </c>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20">
         <f>Q17/Q16</f>
-        <v>3.2273758991349807E-2</v>
-      </c>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21" t="e">
+        <v>2.9561518571989132E-2</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20">
         <f>S17/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21" t="e">
+        <v>4.2742105794794323E-2</v>
+      </c>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20">
         <f>U17/U16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21" t="e">
+        <v>2.5431926489215863E-2</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20">
         <f>W17/W16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="21"/>
+        <v>8.6324238114074914E-2</v>
+      </c>
+      <c r="X22" s="20"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
@@ -3594,10 +3686,10 @@
       <c r="V25" s="7">
         <v>17</v>
       </c>
-      <c r="W25" s="13" t="s">
+      <c r="W25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="11">
         <v>17</v>
       </c>
     </row>
@@ -3662,10 +3754,10 @@
       <c r="V26" s="7">
         <v>6</v>
       </c>
-      <c r="W26" s="13" t="s">
+      <c r="W26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="11">
         <v>6</v>
       </c>
     </row>
@@ -3730,10 +3822,10 @@
       <c r="V27" s="7">
         <v>4</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="W27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3792,10 +3884,10 @@
       <c r="V28" s="7">
         <v>37</v>
       </c>
-      <c r="W28" s="13" t="s">
+      <c r="W28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="11">
         <v>37</v>
       </c>
     </row>
@@ -3854,10 +3946,10 @@
       <c r="V29" s="7">
         <v>21</v>
       </c>
-      <c r="W29" s="13" t="s">
+      <c r="W29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="11">
         <v>21</v>
       </c>
     </row>
@@ -3904,10 +3996,10 @@
       <c r="V30" s="7">
         <v>52</v>
       </c>
-      <c r="W30" s="13" t="s">
+      <c r="W30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="11">
         <v>52</v>
       </c>
     </row>
@@ -3954,10 +4046,10 @@
       <c r="V31" s="7">
         <v>31</v>
       </c>
-      <c r="W31" s="13" t="s">
+      <c r="W31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="11">
         <v>31</v>
       </c>
     </row>
@@ -4004,10 +4096,10 @@
       <c r="V32" s="7">
         <v>23</v>
       </c>
-      <c r="W32" s="13" t="s">
+      <c r="W32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="11">
         <v>23</v>
       </c>
     </row>
@@ -4054,10 +4146,10 @@
       <c r="V33" s="7">
         <v>3</v>
       </c>
-      <c r="W33" s="13" t="s">
+      <c r="W33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="11">
         <v>3</v>
       </c>
     </row>
@@ -4104,10 +4196,10 @@
       <c r="V34" s="7">
         <v>21</v>
       </c>
-      <c r="W34" s="13" t="s">
+      <c r="W34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="11">
         <v>21</v>
       </c>
     </row>
@@ -4136,10 +4228,10 @@
       <c r="V35" s="7">
         <v>3</v>
       </c>
-      <c r="W35" s="13" t="s">
+      <c r="W35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="11">
         <v>3</v>
       </c>
     </row>
@@ -4168,10 +4260,10 @@
       <c r="V36" s="7">
         <v>18</v>
       </c>
-      <c r="W36" s="13" t="s">
+      <c r="W36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="11">
         <v>18</v>
       </c>
     </row>
@@ -4201,10 +4293,10 @@
       <c r="V37" s="7">
         <v>13</v>
       </c>
-      <c r="W37" s="13" t="s">
+      <c r="W37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="11">
         <v>13</v>
       </c>
     </row>
@@ -4234,10 +4326,10 @@
       <c r="V38" s="7">
         <v>8</v>
       </c>
-      <c r="W38" s="13" t="s">
+      <c r="W38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="11">
         <v>8</v>
       </c>
     </row>
@@ -4267,10 +4359,10 @@
       <c r="V39" s="7">
         <v>5</v>
       </c>
-      <c r="W39" s="13" t="s">
+      <c r="W39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="11">
         <v>5</v>
       </c>
     </row>
@@ -4288,10 +4380,10 @@
       <c r="V40">
         <v>23</v>
       </c>
-      <c r="W40" s="13" t="s">
+      <c r="W40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="11">
         <v>23</v>
       </c>
     </row>
@@ -4309,10 +4401,10 @@
       <c r="V41">
         <v>9</v>
       </c>
-      <c r="W41" s="13" t="s">
+      <c r="W41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="11">
         <v>9</v>
       </c>
     </row>
@@ -4330,10 +4422,10 @@
       <c r="V42">
         <v>10</v>
       </c>
-      <c r="W42" s="13" t="s">
+      <c r="W42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="11">
         <v>10</v>
       </c>
     </row>
@@ -4351,10 +4443,10 @@
       <c r="V43">
         <v>25</v>
       </c>
-      <c r="W43" s="13" t="s">
+      <c r="W43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="11">
         <v>25</v>
       </c>
     </row>
@@ -4372,10 +4464,10 @@
       <c r="V44">
         <v>4</v>
       </c>
-      <c r="W44" s="13" t="s">
+      <c r="W44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="11">
         <v>4</v>
       </c>
     </row>
@@ -4387,10 +4479,10 @@
       <c r="V45">
         <v>11</v>
       </c>
-      <c r="W45" s="13" t="s">
+      <c r="W45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="11">
         <v>11</v>
       </c>
     </row>
@@ -4401,10 +4493,10 @@
       <c r="V46">
         <v>12</v>
       </c>
-      <c r="W46" s="13" t="s">
+      <c r="W46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="11">
         <v>12</v>
       </c>
     </row>
@@ -4415,10 +4507,10 @@
       <c r="V47">
         <v>22</v>
       </c>
-      <c r="W47" s="13" t="s">
+      <c r="W47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="X47" s="13">
+      <c r="X47" s="11">
         <v>22</v>
       </c>
     </row>
@@ -4429,10 +4521,10 @@
       <c r="V48">
         <v>32</v>
       </c>
-      <c r="W48" s="13" t="s">
+      <c r="W48" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="X48" s="13">
+      <c r="X48" s="11">
         <v>32</v>
       </c>
     </row>
@@ -4443,178 +4535,178 @@
       <c r="V49">
         <v>5</v>
       </c>
-      <c r="W49" s="13" t="s">
+      <c r="W49" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X49" s="13">
+      <c r="X49" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W50" s="13" t="s">
+      <c r="W50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W51" s="13" t="s">
+      <c r="W51" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="11">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W52" s="13" t="s">
+      <c r="W52" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W53" s="13" t="s">
+      <c r="W53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="X53" s="13">
+      <c r="X53" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W54" s="13" t="s">
+      <c r="W54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X54" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W55" s="13" t="s">
+      <c r="W55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W56" s="13" t="s">
+      <c r="W56" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W57" s="13" t="s">
+      <c r="W57" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="11">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W58" s="13" t="s">
+      <c r="W58" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="X58" s="13">
+      <c r="X58" s="11">
         <v>49</v>
       </c>
     </row>
     <row r="59" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W59" s="13" t="s">
+      <c r="W59" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="X59" s="13">
+      <c r="X59" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W60" s="13" t="s">
+      <c r="W60" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X60" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W61" s="13" t="s">
+      <c r="W61" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="X61" s="13">
+      <c r="X61" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W62" s="13" t="s">
+      <c r="W62" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="X62" s="13">
+      <c r="X62" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W63" s="13" t="s">
+      <c r="W63" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="X63" s="13">
+      <c r="X63" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W64" s="13" t="s">
+      <c r="W64" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="X64" s="13">
+      <c r="X64" s="11">
         <v>33</v>
       </c>
     </row>
     <row r="65" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W65" s="13" t="s">
+      <c r="W65" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W66" s="13" t="s">
+      <c r="W66" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X66" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W67" s="13" t="s">
+      <c r="W67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="X67" s="13">
+      <c r="X67" s="11">
         <v>32</v>
       </c>
     </row>
     <row r="68" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W68" s="13" t="s">
+      <c r="W68" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="X68" s="13">
+      <c r="X68" s="11">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W69" s="13" t="s">
+      <c r="W69" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X69" s="13">
+      <c r="X69" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W70" s="13" t="s">
+      <c r="W70" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="X70" s="13">
+      <c r="X70" s="11">
         <v>248</v>
       </c>
     </row>
@@ -4627,90 +4719,90 @@
       </c>
     </row>
     <row r="72" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W72" s="13" t="s">
+      <c r="W72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X72" s="13">
+      <c r="X72" s="11">
         <v>204</v>
       </c>
     </row>
     <row r="73" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W73" s="13" t="s">
+      <c r="W73" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="X73" s="13">
+      <c r="X73" s="11">
         <v>209</v>
       </c>
     </row>
     <row r="74" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W74" s="13" t="s">
+      <c r="W74" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X74" s="13">
+      <c r="X74" s="11">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W75" s="13" t="s">
+      <c r="W75" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X75" s="13">
+      <c r="X75" s="11">
         <v>182</v>
       </c>
     </row>
     <row r="76" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W76" s="13" t="s">
+      <c r="W76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X76" s="13">
+      <c r="X76" s="11">
         <v>187</v>
       </c>
     </row>
     <row r="77" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W77" s="13" t="s">
+      <c r="W77" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X77" s="13">
+      <c r="X77" s="11">
         <v>118</v>
       </c>
     </row>
     <row r="78" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W78" s="13" t="s">
+      <c r="W78" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X78" s="13">
+      <c r="X78" s="11">
         <v>170</v>
       </c>
     </row>
     <row r="79" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W79" s="13" t="s">
+      <c r="W79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="X79" s="13">
+      <c r="X79" s="11">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W80" s="13" t="s">
+      <c r="W80" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X80" s="13">
+      <c r="X80" s="11">
         <v>2280</v>
       </c>
     </row>
     <row r="81" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W81" s="13" t="s">
+      <c r="W81" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="X81" s="13">
+      <c r="X81" s="11">
         <v>1016</v>
       </c>
     </row>
     <row r="82" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W82" s="13" t="s">
+      <c r="W82" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X82" s="13">
+      <c r="X82" s="11">
         <v>934</v>
       </c>
     </row>
@@ -4812,6 +4904,7 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -4826,13 +4919,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -4841,6 +4927,13 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -4850,6 +4943,21 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="S21:T21"/>
@@ -4868,35 +4976,15 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="S19:T19"/>
@@ -4917,6 +5005,10 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4926,1806 +5018,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V49"/>
+  <dimension ref="A2:X82"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16:P16"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="10"/>
-    <col min="11" max="11" width="31.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="10"/>
-    <col min="21" max="21" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="e">
-        <f>AVERAGE(C21:L21)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="8" t="e">
-        <f>AVERAGE(C22:L22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16" t="str">
-        <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
-        <v>JS Only Average Size = 1410</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="str">
-        <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
-        <v>JS Only Average Size = 183</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="str">
-        <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
-        <v>JS Only Average Size = 177.8</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="str">
-        <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
-        <v>JS Only Average Size = 34</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="str">
-        <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
-        <v>JS Only Average Size = 34.375</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="str">
-        <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
-        <v>JS Only Average Size = 31.6</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16" t="str">
-        <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
-        <v>JS Only Average Size = 31.1</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16" t="str">
-        <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
-        <v>CSS Only Average Size = 24.5</v>
-      </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16" t="str">
-        <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
-        <v>CSS Only Average Size = 17.5</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16" t="str">
-        <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
-        <v>CSS Only Average Size = 16.6</v>
-      </c>
-      <c r="V5" s="16"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
-        <v>101</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17">
-        <v>106</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
-        <v>104</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>110</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
-        <v>110</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17">
-        <v>107</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
-        <v>100</v>
-      </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
-        <v>112</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
-        <v>100</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18">
-        <v>100</v>
-      </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10" t="e">
-        <f>AVERAGE(B6:B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="22" t="e">
-        <f>AVERAGE(C6:C15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22" t="e">
-        <f>AVERAGE(E6:E15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="e">
-        <f>AVERAGE(G6:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="16" t="e">
-        <f>AVERAGE(I6:I15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16" t="e">
-        <f>AVERAGE(K6:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16" t="e">
-        <f>AVERAGE(M6:M15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16">
-        <f>AVERAGE(O6:O15)</f>
-        <v>105</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="e">
-        <f>AVERAGE(Q6:Q15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="22" t="e">
-        <f>AVERAGE(S6:S15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="16" t="e">
-        <f>AVERAGE(U6:U15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="16"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11" t="e">
-        <f>STDEV(B6:B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="19" t="e">
-        <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19" t="e">
-        <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19" t="e">
-        <f t="shared" ref="M17" si="6">STDEV(M6:M15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19">
-        <f t="shared" ref="O17" si="7">STDEV(O6:O15)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19" t="e">
-        <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19" t="e">
-        <f t="shared" ref="U17" si="9">STDEV(U6:U15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="16">
-        <f>AVERAGE(D25:D27)</f>
-        <v>1410</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16">
-        <f>AVERAGE(F25:F34)</f>
-        <v>183</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
-        <f>AVERAGE(H25:H34)</f>
-        <v>177.8</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
-        <f>AVERAGE(J25:J29)</f>
-        <v>34</v>
-      </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16">
-        <f>AVERAGE(L25:L32)</f>
-        <v>34.375</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="19">
-        <f>AVERAGE(N25:N39)</f>
-        <v>31.6</v>
-      </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19">
-        <f>AVERAGE(P25:P41)</f>
-        <v>31.058823529411764</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="16">
-        <f>AVERAGE(R25:R34)</f>
-        <v>24.5</v>
-      </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="19">
-        <f>AVERAGE(T25:T39)</f>
-        <v>17.466666666666665</v>
-      </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="16">
-        <f>AVERAGE(V25:V49)</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="V18" s="16"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="16">
-        <f>SUM(D25:D44)</f>
-        <v>4230</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16">
-        <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
-        <v>915</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
-        <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
-        <v>1778</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16">
-        <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
-        <v>170</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16">
-        <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
-        <v>348</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16">
-        <f>SUM(N25:N39)</f>
-        <v>474</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16">
-        <f>SUM(P25:P41)</f>
-        <v>528</v>
-      </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16">
-        <f t="shared" ref="Q19" si="14">SUM(R25:R44)</f>
-        <v>245</v>
-      </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16">
-        <f>SUM(T25:T44)</f>
-        <v>262</v>
-      </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16">
-        <f>SUM(V25:V49)</f>
-        <v>415</v>
-      </c>
-      <c r="V19" s="16"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="16">
-        <v>3</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
-        <v>5</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
-        <v>10</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16">
-        <v>5</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16">
-        <v>10</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
-        <f>COUNTA(M25:M39)</f>
-        <v>15</v>
-      </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16">
-        <f>COUNTA(O25:O44)</f>
-        <v>20</v>
-      </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16">
-        <v>10</v>
-      </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16">
-        <v>15</v>
-      </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16">
-        <v>25</v>
-      </c>
-      <c r="V20" s="16"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="20" t="e">
-        <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20" t="e">
-        <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20" t="e">
-        <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20" t="e">
-        <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20" t="e">
-        <f>K16/SUM(L25:L32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20" t="e">
-        <f>M16/SUM(N25:N39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20">
-        <f>O16/SUM(P25:P44)</f>
-        <v>0.16178736517719569</v>
-      </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20" t="e">
-        <f>Q16/SUM(R25:R34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20" t="e">
-        <f>S16/SUM(T25:T39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20" t="e">
-        <f>U16/SUM(V25:V49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="20"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="21" t="e">
-        <f t="shared" ref="C22" si="19">C17/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="e">
-        <f t="shared" ref="E22" si="20">E17/E16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21" t="e">
-        <f t="shared" ref="G22" si="21">G17/G16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21" t="e">
-        <f t="shared" ref="I22" si="22">I17/I16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21" t="e">
-        <f>K17/K16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21" t="e">
-        <f>M17/M16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21">
-        <f>O17/O16</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21" t="e">
-        <f>Q17/Q16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21" t="e">
-        <f>S17/S16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21" t="e">
-        <f>U17/U16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="21"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2280</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="10">
-        <v>248</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="10">
-        <v>248</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="10">
-        <v>37</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="10">
-        <v>37</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="10">
-        <v>37</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="10">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="10">
-        <v>23</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="10">
-        <v>17</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V25" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1016</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="10">
-        <v>182</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="9">
-        <v>163</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="10">
-        <v>81</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="10">
-        <v>81</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" s="10">
-        <v>81</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="10">
-        <v>81</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="10">
-        <v>21</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="T26" s="10">
-        <v>6</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V26" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="10">
-        <v>934</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="10">
-        <v>118</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="10">
-        <v>204</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="10">
-        <v>17</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="10">
-        <v>17</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="10">
-        <v>17</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="10">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R27" s="10">
-        <v>32</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="T27" s="10">
-        <v>4</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V27" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="10">
-        <v>204</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="10">
-        <v>209</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="10">
-        <v>17</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="10">
-        <v>17</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="10">
-        <v>17</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="10">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R28" s="10">
-        <v>5</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="T28" s="10">
-        <v>37</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V28" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="9">
-        <v>163</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="10">
-        <v>119</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="10">
-        <v>18</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="10">
-        <v>18</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="10">
-        <v>18</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="10">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" s="10">
-        <v>6</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="T29" s="10">
-        <v>21</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V29" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="10">
-        <v>182</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="10">
-        <v>23</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N30" s="10">
-        <v>23</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P30" s="10">
-        <v>23</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="10">
-        <v>37</v>
-      </c>
-      <c r="S30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="T30" s="10">
-        <v>52</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V30" s="10">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="10">
-        <v>187</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="10">
-        <v>40</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N31" s="10">
-        <v>40</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" s="10">
-        <v>17</v>
-      </c>
-      <c r="S31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="T31" s="10">
-        <v>31</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="V31" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="10">
-        <v>118</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="10">
-        <v>42</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N32" s="10">
-        <v>42</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" s="10">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" s="10">
-        <v>21</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T32" s="10">
-        <v>23</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V32" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="10">
-        <v>170</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="10">
-        <v>49</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="10">
-        <v>49</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P33" s="10">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R33" s="10">
-        <v>52</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="T33" s="10">
-        <v>3</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V33" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="10">
-        <v>178</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="10">
-        <v>24</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" s="10">
-        <v>24</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P34" s="10">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R34" s="10">
-        <v>31</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34" s="10">
-        <v>21</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V34" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="M35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N35" s="10">
-        <v>14</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P35" s="10">
-        <v>14</v>
-      </c>
-      <c r="S35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T35" s="10">
-        <v>3</v>
-      </c>
-      <c r="U35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V35" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="M36" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N36" s="10">
-        <v>30</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P36" s="10">
-        <v>30</v>
-      </c>
-      <c r="S36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T36" s="10">
-        <v>18</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V36" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="M37" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N37" s="10">
-        <v>25</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P37" s="10">
-        <v>25</v>
-      </c>
-      <c r="S37" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="T37" s="10">
-        <v>13</v>
-      </c>
-      <c r="U37" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V37" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="M38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N38" s="10">
-        <v>24</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P38" s="10">
-        <v>24</v>
-      </c>
-      <c r="S38" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="T38" s="10">
-        <v>8</v>
-      </c>
-      <c r="U38" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="V38" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="M39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N39" s="10">
-        <v>33</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P39" s="10">
-        <v>33</v>
-      </c>
-      <c r="S39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T39" s="10">
-        <v>5</v>
-      </c>
-      <c r="U39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="V39" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="O40" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" s="10">
-        <v>27</v>
-      </c>
-      <c r="U40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="V40" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="O41" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P41" s="10">
-        <v>27</v>
-      </c>
-      <c r="U41" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V41" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="O42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="10">
-        <v>32</v>
-      </c>
-      <c r="U42" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="V42" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="O43" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P43" s="10">
-        <v>76</v>
-      </c>
-      <c r="U43" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="V43" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="O44" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P44" s="10">
-        <v>13</v>
-      </c>
-      <c r="U44" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="V44" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U45" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V45" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U46" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="V46" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U47" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V47" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V48" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.25">
-      <c r="U49" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V49" s="10">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="180">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X82"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="13"/>
-    <col min="11" max="11" width="31.140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="13" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="13"/>
-    <col min="21" max="21" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="13"/>
-    <col min="23" max="23" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="11" max="11" width="31.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="11"/>
+    <col min="21" max="21" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="11"/>
+    <col min="23" max="23" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="2">
@@ -6734,10 +5062,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="8">
@@ -6745,540 +5073,575 @@
         <v>4.6603624172850168E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="J4" s="11">
+        <v>4</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="N4" s="11">
+        <v>6</v>
+      </c>
+      <c r="P4" s="11">
+        <v>7</v>
+      </c>
+      <c r="R4" s="11">
+        <v>8</v>
+      </c>
+      <c r="T4" s="11">
+        <v>9</v>
+      </c>
+      <c r="V4" s="11">
+        <v>10</v>
+      </c>
+      <c r="X4" s="11">
+        <v>11</v>
+      </c>
+    </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="15" t="str">
         <f t="shared" ref="C5" si="0" xml:space="preserve"> "JS Only Average Size = " &amp; C18</f>
         <v>JS Only Average Size = 1410</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="str">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="str">
         <f t="shared" ref="E5" si="1" xml:space="preserve"> "JS Only Average Size = " &amp; E18</f>
         <v>JS Only Average Size = 183</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="str">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="str">
         <f t="shared" ref="G5" si="2" xml:space="preserve"> "JS Only Average Size = " &amp; G18</f>
         <v>JS Only Average Size = 177.8</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="str">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="str">
         <f t="shared" ref="I5" si="3" xml:space="preserve"> "JS Only Average Size = " &amp; I18</f>
         <v>JS Only Average Size = 34</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="str">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; K18</f>
         <v>JS Only Average Size = 34.375</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="str">
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(M18,1)</f>
         <v>JS Only Average Size = 31.6</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16" t="str">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15" t="str">
         <f xml:space="preserve"> "JS Only Average Size = " &amp; ROUND(O18,1)</f>
         <v>JS Only Average Size = 31.1</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16" t="str">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; Q18</f>
         <v>CSS Only Average Size = 24.5</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16" t="str">
+      <c r="R5" s="15"/>
+      <c r="S5" s="15" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(S18, 1)</f>
         <v>CSS Only Average Size = 17.5</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16" t="str">
+      <c r="T5" s="15"/>
+      <c r="U5" s="15" t="str">
         <f xml:space="preserve"> "CSS Only Average Size = " &amp; ROUND(U18, 1)</f>
         <v>CSS Only Average Size = 16.6</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16" t="str">
+      <c r="V5" s="15"/>
+      <c r="W5" s="15" t="str">
         <f xml:space="preserve"> "Mix Average Size = " &amp; ROUND(W18, 1)</f>
         <v>Mix Average Size = 121.9</v>
       </c>
-      <c r="X5" s="16"/>
+      <c r="X5" s="15"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>0.37</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>1144</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15">
         <v>233</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
         <v>355</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="28">
+      <c r="H6" s="15"/>
+      <c r="I6" s="21">
         <v>90.4</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="26">
+      <c r="J6" s="21"/>
+      <c r="K6" s="27">
         <v>123</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="17">
+      <c r="L6" s="27"/>
+      <c r="M6" s="16">
         <v>161</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
         <v>185</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16">
         <v>0.82</v>
       </c>
-      <c r="R6" s="17"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="24">
         <v>0.71</v>
       </c>
       <c r="T6" s="24"/>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>1.63</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17">
+      <c r="V6" s="16"/>
+      <c r="W6" s="16">
         <v>1144</v>
       </c>
-      <c r="X6" s="17"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>0.43</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>1077</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16">
+      <c r="D7" s="16"/>
+      <c r="E7" s="15">
         <v>246</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>344</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="28">
+      <c r="H7" s="15"/>
+      <c r="I7" s="21">
         <v>96.4</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="26">
+      <c r="J7" s="21"/>
+      <c r="K7" s="27">
         <v>115</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="17">
+      <c r="L7" s="27"/>
+      <c r="M7" s="16">
         <v>159</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>198</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>0.78</v>
       </c>
-      <c r="R7" s="17"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="24">
         <v>1.01</v>
       </c>
       <c r="T7" s="24"/>
-      <c r="U7" s="17">
+      <c r="U7" s="16">
         <v>1.65</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17">
+      <c r="V7" s="16"/>
+      <c r="W7" s="16">
         <v>1077</v>
       </c>
-      <c r="X7" s="17"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>0.44</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>1024</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16">
+      <c r="D8" s="16"/>
+      <c r="E8" s="15">
         <v>235</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
         <v>370</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="28">
+      <c r="H8" s="15"/>
+      <c r="I8" s="21">
         <v>95</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="26">
+      <c r="J8" s="21"/>
+      <c r="K8" s="27">
         <v>124</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="17">
+      <c r="L8" s="27"/>
+      <c r="M8" s="16">
         <v>147</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <v>186</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16">
         <v>0.83</v>
       </c>
-      <c r="R8" s="17"/>
+      <c r="R8" s="16"/>
       <c r="S8" s="24">
         <v>1.03</v>
       </c>
       <c r="T8" s="24"/>
-      <c r="U8" s="17">
+      <c r="U8" s="16">
         <v>1.33</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17">
+      <c r="V8" s="16"/>
+      <c r="W8" s="16">
         <v>1024</v>
       </c>
-      <c r="X8" s="17"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>0.39</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>961</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
         <v>236</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>355</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="28">
+      <c r="H9" s="16"/>
+      <c r="I9" s="21">
         <v>89.7</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="26">
+      <c r="J9" s="21"/>
+      <c r="K9" s="27">
         <v>115</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="17">
+      <c r="L9" s="27"/>
+      <c r="M9" s="16">
         <v>149</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>177</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>0.81</v>
       </c>
-      <c r="R9" s="17"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="24">
         <v>1.07</v>
       </c>
       <c r="T9" s="24"/>
-      <c r="U9" s="17">
+      <c r="U9" s="16">
         <v>1.3</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17">
+      <c r="V9" s="16"/>
+      <c r="W9" s="16">
         <v>961</v>
       </c>
-      <c r="X9" s="17"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>0.4</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>1001</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
         <v>248</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <v>347</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="28">
+      <c r="H10" s="16"/>
+      <c r="I10" s="21">
         <v>86.7</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="26">
+      <c r="J10" s="21"/>
+      <c r="K10" s="27">
         <v>117</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="17">
+      <c r="L10" s="27"/>
+      <c r="M10" s="16">
         <v>161</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
         <v>189</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16">
         <v>0.79</v>
       </c>
-      <c r="R10" s="17"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="24">
         <v>0.98</v>
       </c>
       <c r="T10" s="24"/>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>1.33</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17">
+      <c r="V10" s="16"/>
+      <c r="W10" s="16">
         <v>1001</v>
       </c>
-      <c r="X10" s="17"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>0.37</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>942</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
         <v>252</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
         <v>344</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="28">
+      <c r="H11" s="16"/>
+      <c r="I11" s="21">
         <v>87.5</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="26">
+      <c r="J11" s="21"/>
+      <c r="K11" s="27">
         <v>118</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="17">
+      <c r="L11" s="27"/>
+      <c r="M11" s="16">
         <v>147</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>182</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>0.85</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="16"/>
       <c r="S11" s="24">
         <v>0.97</v>
       </c>
       <c r="T11" s="24"/>
-      <c r="U11" s="17">
+      <c r="U11" s="16">
         <v>1.32</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17">
+      <c r="V11" s="16"/>
+      <c r="W11" s="16">
         <v>942</v>
       </c>
-      <c r="X11" s="17"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>0.38</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>966</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
         <v>256</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <v>341</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="28">
+      <c r="H12" s="16"/>
+      <c r="I12" s="21">
         <v>100.5</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="26">
+      <c r="J12" s="21"/>
+      <c r="K12" s="27">
         <v>114</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="17">
+      <c r="L12" s="27"/>
+      <c r="M12" s="16">
         <v>142</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
         <v>180</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16">
         <v>0.92</v>
       </c>
-      <c r="R12" s="17"/>
+      <c r="R12" s="16"/>
       <c r="S12" s="24">
         <v>0.91</v>
       </c>
       <c r="T12" s="24"/>
-      <c r="U12" s="17">
+      <c r="U12" s="16">
         <v>1.35</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17">
+      <c r="V12" s="16"/>
+      <c r="W12" s="16">
         <v>966</v>
       </c>
-      <c r="X12" s="17"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>0.41</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>961</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <v>255</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <v>350</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="28">
+      <c r="H13" s="16"/>
+      <c r="I13" s="21">
         <v>88.2</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26">
+      <c r="J13" s="21"/>
+      <c r="K13" s="27">
         <v>113</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="17">
+      <c r="L13" s="27"/>
+      <c r="M13" s="16">
         <v>149</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>187</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>0.81</v>
       </c>
-      <c r="R13" s="17"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="24">
         <v>1.1200000000000001</v>
       </c>
       <c r="T13" s="24"/>
-      <c r="U13" s="17">
+      <c r="U13" s="16">
         <v>1.32</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17">
+      <c r="V13" s="16"/>
+      <c r="W13" s="16">
         <v>961</v>
       </c>
-      <c r="X13" s="17"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>0.44</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>1155</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
         <v>267</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <v>341</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="28">
+      <c r="H14" s="16"/>
+      <c r="I14" s="21">
         <v>91.1</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="26">
+      <c r="J14" s="21"/>
+      <c r="K14" s="27">
         <v>119</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="17">
+      <c r="L14" s="27"/>
+      <c r="M14" s="16">
         <v>161</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16">
         <v>190</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16">
         <v>1.01</v>
       </c>
-      <c r="R14" s="17"/>
+      <c r="R14" s="16"/>
       <c r="S14" s="24">
         <v>0.97</v>
       </c>
       <c r="T14" s="24"/>
-      <c r="U14" s="17">
+      <c r="U14" s="16">
         <v>1.45</v>
       </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17">
+      <c r="V14" s="16"/>
+      <c r="W14" s="16">
         <v>1155</v>
       </c>
-      <c r="X14" s="17"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>0.38</v>
       </c>
       <c r="C15" s="25">
@@ -7293,22 +5656,22 @@
         <v>345</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>91.3</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27">
+      <c r="J15" s="26"/>
+      <c r="K15" s="26">
         <v>111</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="18">
+      <c r="L15" s="26"/>
+      <c r="M15" s="17">
         <v>151</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18">
+      <c r="N15" s="17"/>
+      <c r="O15" s="17">
         <v>181</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="25">
         <v>0.9</v>
       </c>
@@ -7330,7 +5693,7 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <f>AVERAGE(B6:B15)</f>
         <v>0.40099999999999997</v>
       </c>
@@ -7349,402 +5712,402 @@
         <v>349.2</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <f>AVERAGE(I6:I15)</f>
         <v>91.68</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15">
         <f>AVERAGE(K6:K15)</f>
         <v>116.9</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16">
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
         <f>AVERAGE(M6:M15)</f>
         <v>152.69999999999999</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15">
         <f>AVERAGE(O6:O15)</f>
         <v>185.5</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16">
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15">
         <f>AVERAGE(Q6:Q15)</f>
         <v>0.85199999999999998</v>
       </c>
-      <c r="R16" s="16"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="22">
         <f>AVERAGE(S6:S15)</f>
         <v>0.97300000000000009</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="16">
+      <c r="U16" s="15">
         <f>AVERAGE(U6:U15)</f>
         <v>1.4109999999999998</v>
       </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16">
+      <c r="V16" s="15"/>
+      <c r="W16" s="15">
         <f>AVERAGE(W6:W15)</f>
         <v>1030.2</v>
       </c>
-      <c r="X16" s="16"/>
+      <c r="X16" s="15"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <f>STDEV(B6:B15)</f>
         <v>2.766867462592951E-2</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f t="shared" ref="C17:I17" si="4">STDEV(C6:C15)</f>
         <v>77.995441462234766</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
         <f t="shared" si="4"/>
         <v>12.037441588643327</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <f t="shared" si="4"/>
         <v>8.8919439194512826</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
         <f t="shared" si="4"/>
         <v>4.3654705741000406</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <f t="shared" ref="K17:Q17" si="5">STDEV(K6:K15)</f>
         <v>4.2018514437751797</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19">
+      <c r="L17" s="18"/>
+      <c r="M17" s="18">
         <f t="shared" ref="M17" si="6">STDEV(M6:M15)</f>
         <v>7.1188326134119615</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18">
         <f t="shared" ref="O17" si="7">STDEV(O6:O15)</f>
         <v>6.0231036665308837</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18">
         <f t="shared" si="5"/>
         <v>7.1460945044595284E-2</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19">
+      <c r="R17" s="18"/>
+      <c r="S17" s="18">
         <f t="shared" ref="S17" si="8">STDEV(S6:S15)</f>
         <v>0.11005554153345475</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19">
+      <c r="T17" s="18"/>
+      <c r="U17" s="18">
         <f t="shared" ref="U17:W17" si="9">STDEV(U6:U15)</f>
         <v>0.13025189271390852</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19">
+      <c r="V17" s="18"/>
+      <c r="W17" s="18">
         <f t="shared" si="9"/>
         <v>77.995441462234766</v>
       </c>
-      <c r="X17" s="19"/>
+      <c r="X17" s="18"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f>AVERAGE(D25:D27)</f>
         <v>1410</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <f>AVERAGE(F25:F34)</f>
         <v>183</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15">
         <f>AVERAGE(H25:H34)</f>
         <v>177.8</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
         <f>AVERAGE(J25:J29)</f>
         <v>34</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15">
         <f>AVERAGE(L25:L32)</f>
         <v>34.375</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="19">
+      <c r="L18" s="15"/>
+      <c r="M18" s="18">
         <f>AVERAGE(N25:N39)</f>
         <v>31.6</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18">
         <f>AVERAGE(P25:P41)</f>
         <v>31.058823529411764</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="16">
+      <c r="P18" s="18"/>
+      <c r="Q18" s="15">
         <f>AVERAGE(R25:R34)</f>
         <v>24.5</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="28">
+      <c r="R18" s="15"/>
+      <c r="S18" s="21">
         <f>AVERAGE(T25:T39)</f>
         <v>17.466666666666665</v>
       </c>
-      <c r="T18" s="28"/>
-      <c r="U18" s="16">
+      <c r="T18" s="21"/>
+      <c r="U18" s="15">
         <f>AVERAGE(V25:V49)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="28">
+      <c r="V18" s="15"/>
+      <c r="W18" s="21">
         <f>AVERAGE(X25:X82)</f>
         <v>121.93103448275862</v>
       </c>
-      <c r="X18" s="28"/>
+      <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <f>SUM(D25:D44)</f>
         <v>4230</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
         <f t="shared" ref="E19" si="10">SUM(F25:F44)</f>
         <v>915</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
         <f t="shared" ref="G19" si="11">SUM(H25:H44)</f>
         <v>1778</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
         <f t="shared" ref="I19" si="12">SUM(J25:J44)</f>
         <v>170</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
         <f t="shared" ref="K19" si="13">SUM(L25:L44)</f>
         <v>348</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16">
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
         <f>SUM(N25:N39)</f>
         <v>474</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15">
         <f>SUM(P25:P41)</f>
         <v>528</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15">
         <f t="shared" ref="Q19" si="14">SUM(R25:R44)</f>
         <v>245</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16">
+      <c r="R19" s="15"/>
+      <c r="S19" s="15">
         <f>SUM(T25:T44)</f>
         <v>262</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16">
+      <c r="T19" s="15"/>
+      <c r="U19" s="15">
         <f>SUM(V25:V49)</f>
         <v>415</v>
       </c>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16">
+      <c r="V19" s="15"/>
+      <c r="W19" s="15">
         <f>SUM(X25:X82)</f>
         <v>7072</v>
       </c>
-      <c r="X19" s="16"/>
+      <c r="X19" s="15"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>3</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
         <v>5</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15">
         <v>10</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
         <v>5</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
         <v>10</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
         <f>COUNTA(M25:M39)</f>
         <v>15</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15">
         <f>COUNTA(O25:O44)</f>
         <v>20</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15">
         <v>10</v>
       </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16">
+      <c r="R20" s="15"/>
+      <c r="S20" s="15">
         <v>15</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16">
+      <c r="T20" s="15"/>
+      <c r="U20" s="15">
         <v>25</v>
       </c>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16">
+      <c r="V20" s="15"/>
+      <c r="W20" s="15">
         <f>COUNT(X25:X82)</f>
         <v>58</v>
       </c>
-      <c r="X20" s="16"/>
+      <c r="X20" s="15"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f t="shared" ref="C21" si="15">C16/SUM(D25:D34)</f>
         <v>0.24354609929078017</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <f t="shared" ref="E21" si="16">E16/SUM(F25:F34)</f>
         <v>0.27245901639344261</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <f t="shared" ref="G21" si="17">G16/SUM(H25:H34)</f>
         <v>0.19640044994375702</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19">
         <f t="shared" ref="I21" si="18">I16/SUM(J25:J34)</f>
         <v>0.53929411764705881</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19">
         <f>K16/SUM(L25:L32)</f>
         <v>0.42509090909090913</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19">
         <f>M16/SUM(N25:N39)</f>
         <v>0.32215189873417721</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20">
+      <c r="N21" s="19"/>
+      <c r="O21" s="19">
         <f>O16/SUM(P25:P44)</f>
         <v>0.28582434514637906</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19">
         <f>Q16/SUM(R25:R34)</f>
         <v>3.4775510204081632E-3</v>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20">
+      <c r="R21" s="19"/>
+      <c r="S21" s="19">
         <f>S16/SUM(T25:T39)</f>
         <v>3.7137404580152673E-3</v>
       </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20">
+      <c r="T21" s="19"/>
+      <c r="U21" s="19">
         <f>U16/SUM(V25:V49)</f>
         <v>3.3999999999999994E-3</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20">
+      <c r="V21" s="19"/>
+      <c r="W21" s="19">
         <f>W16/SUM(X25:X82)</f>
         <v>0.14567307692307693</v>
       </c>
-      <c r="X21" s="20"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="21">
-        <f t="shared" ref="C22:E22" si="19">C17/C16</f>
+      <c r="C22" s="20">
+        <f t="shared" ref="C22" si="19">C17/C16</f>
         <v>7.5709028792695365E-2</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
         <f t="shared" ref="E22" si="20">E17/E16</f>
         <v>4.828496425448587E-2</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
         <f t="shared" ref="G22" si="21">G17/G16</f>
         <v>2.5463756928554647E-2</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20">
         <f t="shared" ref="I22" si="22">I17/I16</f>
         <v>4.7616389333551924E-2</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21">
+      <c r="J22" s="20"/>
+      <c r="K22" s="20">
         <f>K17/K16</f>
         <v>3.5943981554963041E-2</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21">
+      <c r="L22" s="20"/>
+      <c r="M22" s="20">
         <f>M17/M16</f>
         <v>4.6619728967989271E-2</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21">
+      <c r="N22" s="20"/>
+      <c r="O22" s="20">
         <f>O17/O16</f>
         <v>3.2469561544640882E-2</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21">
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20">
         <f>Q17/Q16</f>
         <v>8.3874348643891178E-2</v>
       </c>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21">
+      <c r="R22" s="20"/>
+      <c r="S22" s="20">
         <f>S17/S16</f>
         <v>0.11310949797888462</v>
       </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20">
         <f>U17/U16</f>
         <v>9.2311759542103855E-2</v>
       </c>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21">
+      <c r="V22" s="20"/>
+      <c r="W22" s="20">
         <f>W17/W16</f>
         <v>7.5709028792695365E-2</v>
       </c>
-      <c r="X22" s="21"/>
+      <c r="X22" s="20"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
@@ -7815,84 +6178,84 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <v>2280</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <v>248</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <v>248</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <v>37</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="11">
         <v>37</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="11">
         <v>37</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="11">
         <v>37</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="11">
         <v>23</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="11">
         <v>17</v>
       </c>
-      <c r="U25" s="13" t="s">
+      <c r="U25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="11">
         <v>17</v>
       </c>
-      <c r="W25" s="13" t="s">
+      <c r="W25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <v>1016</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <v>182</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -7901,182 +6264,182 @@
       <c r="H26" s="9">
         <v>163</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>81</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="11">
         <v>81</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="11">
         <v>81</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <v>81</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="11">
         <v>21</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="11">
         <v>6</v>
       </c>
-      <c r="U26" s="13" t="s">
+      <c r="U26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="11">
         <v>6</v>
       </c>
-      <c r="W26" s="13" t="s">
+      <c r="W26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <v>934</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <v>118</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <v>204</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="11">
         <v>17</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="11">
         <v>17</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="11">
         <v>17</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <v>17</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="11">
         <v>32</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="11">
         <v>4</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="11">
         <v>4</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="W27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <v>204</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>209</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>17</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <v>17</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <v>17</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <v>17</v>
       </c>
-      <c r="Q28" s="13" t="s">
+      <c r="Q28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="11">
         <v>5</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="11">
         <v>37</v>
       </c>
-      <c r="U28" s="13" t="s">
+      <c r="U28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="11">
         <v>37</v>
       </c>
-      <c r="W28" s="13" t="s">
+      <c r="W28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="11">
         <v>37</v>
       </c>
     </row>
@@ -8087,806 +6450,806 @@
       <c r="F29" s="9">
         <v>163</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <v>119</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <v>18</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="11">
         <v>18</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="11">
         <v>18</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="11">
         <v>18</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="11">
         <v>6</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="11">
         <v>21</v>
       </c>
-      <c r="U29" s="13" t="s">
+      <c r="U29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="11">
         <v>21</v>
       </c>
-      <c r="W29" s="13" t="s">
+      <c r="W29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <v>182</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="11">
         <v>23</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="11">
         <v>23</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="11">
         <v>23</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="Q30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="11">
         <v>37</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="11">
         <v>52</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="11">
         <v>52</v>
       </c>
-      <c r="W30" s="13" t="s">
+      <c r="W30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="11">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <v>187</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="11">
         <v>40</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="11">
         <v>40</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="11">
         <v>40</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="11">
         <v>17</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="11">
         <v>31</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="11">
         <v>31</v>
       </c>
-      <c r="W31" s="13" t="s">
+      <c r="W31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="11">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>118</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="11">
         <v>42</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="11">
         <v>42</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="11">
         <v>42</v>
       </c>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="11">
         <v>21</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="11">
         <v>23</v>
       </c>
-      <c r="U32" s="13" t="s">
+      <c r="U32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="11">
         <v>23</v>
       </c>
-      <c r="W32" s="13" t="s">
+      <c r="W32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <v>170</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <v>49</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="11">
         <v>49</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="11">
         <v>49</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="11">
         <v>52</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="11">
         <v>3</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="U33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="11">
         <v>3</v>
       </c>
-      <c r="W33" s="13" t="s">
+      <c r="W33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>178</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="11">
         <v>24</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="11">
         <v>24</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="11">
         <v>24</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="11">
         <v>31</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="S34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="11">
         <v>21</v>
       </c>
-      <c r="U34" s="13" t="s">
+      <c r="U34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="11">
         <v>21</v>
       </c>
-      <c r="W34" s="13" t="s">
+      <c r="W34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="11">
         <v>14</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="11">
         <v>14</v>
       </c>
-      <c r="S35" s="13" t="s">
+      <c r="S35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T35" s="11">
         <v>3</v>
       </c>
-      <c r="U35" s="13" t="s">
+      <c r="U35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="11">
         <v>3</v>
       </c>
-      <c r="W35" s="13" t="s">
+      <c r="W35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="11">
         <v>30</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="11">
         <v>30</v>
       </c>
-      <c r="S36" s="13" t="s">
+      <c r="S36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T36" s="13">
+      <c r="T36" s="11">
         <v>18</v>
       </c>
-      <c r="U36" s="13" t="s">
+      <c r="U36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="11">
         <v>18</v>
       </c>
-      <c r="W36" s="13" t="s">
+      <c r="W36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="11">
         <v>25</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="O37" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <v>25</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T37" s="11">
         <v>13</v>
       </c>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="11">
         <v>13</v>
       </c>
-      <c r="W37" s="13" t="s">
+      <c r="W37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="11">
         <v>24</v>
       </c>
-      <c r="O38" s="13" t="s">
+      <c r="O38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <v>24</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="11">
         <v>8</v>
       </c>
-      <c r="U38" s="13" t="s">
+      <c r="U38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="11">
         <v>8</v>
       </c>
-      <c r="W38" s="13" t="s">
+      <c r="W38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="11">
         <v>33</v>
       </c>
-      <c r="O39" s="13" t="s">
+      <c r="O39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <v>33</v>
       </c>
-      <c r="S39" s="13" t="s">
+      <c r="S39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T39" s="13">
+      <c r="T39" s="11">
         <v>5</v>
       </c>
-      <c r="U39" s="13" t="s">
+      <c r="U39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="11">
         <v>5</v>
       </c>
-      <c r="W39" s="13" t="s">
+      <c r="W39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="O40" s="13" t="s">
+      <c r="O40" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="11">
         <v>27</v>
       </c>
-      <c r="U40" s="13" t="s">
+      <c r="U40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="V40" s="13">
+      <c r="V40" s="11">
         <v>23</v>
       </c>
-      <c r="W40" s="13" t="s">
+      <c r="W40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="O41" s="13" t="s">
+      <c r="O41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="11">
         <v>27</v>
       </c>
-      <c r="U41" s="13" t="s">
+      <c r="U41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="11">
         <v>9</v>
       </c>
-      <c r="W41" s="13" t="s">
+      <c r="W41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="O42" s="13" t="s">
+      <c r="O42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="11">
         <v>32</v>
       </c>
-      <c r="U42" s="13" t="s">
+      <c r="U42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V42" s="13">
+      <c r="V42" s="11">
         <v>10</v>
       </c>
-      <c r="W42" s="13" t="s">
+      <c r="W42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="O43" s="13" t="s">
+      <c r="O43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="11">
         <v>76</v>
       </c>
-      <c r="U43" s="13" t="s">
+      <c r="U43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V43" s="13">
+      <c r="V43" s="11">
         <v>25</v>
       </c>
-      <c r="W43" s="13" t="s">
+      <c r="W43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="O44" s="13" t="s">
+      <c r="O44" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="11">
         <v>13</v>
       </c>
-      <c r="U44" s="13" t="s">
+      <c r="U44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V44" s="11">
         <v>4</v>
       </c>
-      <c r="W44" s="13" t="s">
+      <c r="W44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="U45" s="13" t="s">
+      <c r="U45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="11">
         <v>11</v>
       </c>
-      <c r="W45" s="13" t="s">
+      <c r="W45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="U46" s="13" t="s">
+      <c r="U46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="V46" s="13">
+      <c r="V46" s="11">
         <v>12</v>
       </c>
-      <c r="W46" s="13" t="s">
+      <c r="W46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="U47" s="13" t="s">
+      <c r="U47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="V47" s="13">
+      <c r="V47" s="11">
         <v>22</v>
       </c>
-      <c r="W47" s="13" t="s">
+      <c r="W47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="X47" s="13">
+      <c r="X47" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="U48" s="13" t="s">
+      <c r="U48" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V48" s="13">
+      <c r="V48" s="11">
         <v>32</v>
       </c>
-      <c r="W48" s="13" t="s">
+      <c r="W48" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="X48" s="13">
+      <c r="X48" s="11">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U49" s="13" t="s">
+      <c r="U49" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V49" s="13">
+      <c r="V49" s="11">
         <v>5</v>
       </c>
-      <c r="W49" s="13" t="s">
+      <c r="W49" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X49" s="13">
+      <c r="X49" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W50" s="13" t="s">
+      <c r="W50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W51" s="13" t="s">
+      <c r="W51" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="11">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W52" s="13" t="s">
+      <c r="W52" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W53" s="13" t="s">
+      <c r="W53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="X53" s="13">
+      <c r="X53" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W54" s="13" t="s">
+      <c r="W54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X54" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W55" s="13" t="s">
+      <c r="W55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W56" s="13" t="s">
+      <c r="W56" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W57" s="13" t="s">
+      <c r="W57" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="11">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W58" s="13" t="s">
+      <c r="W58" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="X58" s="13">
+      <c r="X58" s="11">
         <v>49</v>
       </c>
     </row>
     <row r="59" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W59" s="13" t="s">
+      <c r="W59" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="X59" s="13">
+      <c r="X59" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W60" s="13" t="s">
+      <c r="W60" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X60" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W61" s="13" t="s">
+      <c r="W61" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="X61" s="13">
+      <c r="X61" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W62" s="13" t="s">
+      <c r="W62" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="X62" s="13">
+      <c r="X62" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W63" s="13" t="s">
+      <c r="W63" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="X63" s="13">
+      <c r="X63" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="W64" s="13" t="s">
+      <c r="W64" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="X64" s="13">
+      <c r="X64" s="11">
         <v>33</v>
       </c>
     </row>
     <row r="65" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W65" s="13" t="s">
+      <c r="W65" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W66" s="13" t="s">
+      <c r="W66" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X66" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W67" s="13" t="s">
+      <c r="W67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="X67" s="13">
+      <c r="X67" s="11">
         <v>32</v>
       </c>
     </row>
     <row r="68" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W68" s="13" t="s">
+      <c r="W68" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="X68" s="13">
+      <c r="X68" s="11">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W69" s="13" t="s">
+      <c r="W69" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X69" s="13">
+      <c r="X69" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W70" s="13" t="s">
+      <c r="W70" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="X70" s="13">
+      <c r="X70" s="11">
         <v>248</v>
       </c>
     </row>
@@ -8899,90 +7262,90 @@
       </c>
     </row>
     <row r="72" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W72" s="13" t="s">
+      <c r="W72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X72" s="13">
+      <c r="X72" s="11">
         <v>204</v>
       </c>
     </row>
     <row r="73" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W73" s="13" t="s">
+      <c r="W73" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="X73" s="13">
+      <c r="X73" s="11">
         <v>209</v>
       </c>
     </row>
     <row r="74" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W74" s="13" t="s">
+      <c r="W74" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X74" s="13">
+      <c r="X74" s="11">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W75" s="13" t="s">
+      <c r="W75" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X75" s="13">
+      <c r="X75" s="11">
         <v>182</v>
       </c>
     </row>
     <row r="76" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W76" s="13" t="s">
+      <c r="W76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X76" s="13">
+      <c r="X76" s="11">
         <v>187</v>
       </c>
     </row>
     <row r="77" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W77" s="13" t="s">
+      <c r="W77" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X77" s="13">
+      <c r="X77" s="11">
         <v>118</v>
       </c>
     </row>
     <row r="78" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W78" s="13" t="s">
+      <c r="W78" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X78" s="13">
+      <c r="X78" s="11">
         <v>170</v>
       </c>
     </row>
     <row r="79" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W79" s="13" t="s">
+      <c r="W79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="X79" s="13">
+      <c r="X79" s="11">
         <v>178</v>
       </c>
     </row>
     <row r="80" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W80" s="13" t="s">
+      <c r="W80" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X80" s="13">
+      <c r="X80" s="11">
         <v>2280</v>
       </c>
     </row>
     <row r="81" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W81" s="13" t="s">
+      <c r="W81" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="X81" s="13">
+      <c r="X81" s="11">
         <v>1016</v>
       </c>
     </row>
     <row r="82" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W82" s="13" t="s">
+      <c r="W82" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X82" s="13">
+      <c r="X82" s="11">
         <v>934</v>
       </c>
     </row>
@@ -8999,6 +7362,7 @@
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="U21:V21"/>
     <mergeCell ref="W21:X21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
@@ -9009,7 +7373,6 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
@@ -9021,6 +7384,7 @@
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="W19:X19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
@@ -9031,7 +7395,6 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q18:R18"/>
@@ -9043,6 +7406,7 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="W17:X17"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -9053,7 +7417,6 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:R16"/>
@@ -9065,6 +7428,7 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="W15:X15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -9075,7 +7439,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:R14"/>
@@ -9087,6 +7450,7 @@
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="W13:X13"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -9097,7 +7461,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="Q12:R12"/>
@@ -9109,6 +7472,7 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
@@ -9119,7 +7483,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
@@ -9131,6 +7494,7 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -9141,7 +7505,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
@@ -9153,6 +7516,7 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -9163,7 +7527,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
@@ -9175,6 +7538,7 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -9185,10 +7549,134 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="P1">
+        <v>8</v>
+      </c>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>10</v>
+      </c>
+      <c r="V1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="28">
+        <f>(WebSocket!B16-Normal!B16)/Normal!B16</f>
+        <v>2.6483790523690769</v>
+      </c>
+      <c r="C4" s="28">
+        <f>(WebSocket!C16-Normal!C16)/Normal!C16</f>
+        <v>0.46301688992428652</v>
+      </c>
+      <c r="D4" s="28">
+        <f>(WebSocket!E16-Normal!E16)/Normal!E16</f>
+        <v>0.79021259526674681</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <f>(WebSocket!G16-Normal!G16)/Normal!G16</f>
+        <v>0.79066437571592207</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28">
+        <f>(WebSocket!I16-Normal!I16)/Normal!I16</f>
+        <v>1.5316317626527047</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28">
+        <f>(WebSocket!K16-Normal!K16)/Normal!K16</f>
+        <v>1.3857998289136011</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28">
+        <f>(WebSocket!M16-Normal!M16)/Normal!M16</f>
+        <v>0.94106090373280937</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28">
+        <f>(WebSocket!O16-Normal!O16)/Normal!O16</f>
+        <v>3.6636118598382752</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28">
+        <f>(WebSocket!Q16-Normal!Q16)/Normal!Q16</f>
+        <v>0.99882629107981236</v>
+      </c>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28">
+        <f>(WebSocket!S16-Normal!S16)/Normal!S16</f>
+        <v>1.2045220966084278</v>
+      </c>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28">
+        <f>(WebSocket!U16-Normal!U16)/Normal!U16</f>
+        <v>1.2572643515237423</v>
+      </c>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28">
+        <f>(WebSocket!W16-Normal!W16)/Normal!W16</f>
+        <v>0.39914579693263447</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>